--- a/client/outputNN.xlsx
+++ b/client/outputNN.xlsx
@@ -405,17 +405,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>471_10</t>
+          <t>468_10</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>36527.34097222222</v>
+        <v>36527.48138888889</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -427,20 +427,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>471_10</t>
+          <t>469_10</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>36527.34097222222</v>
+        <v>36527.43081018519</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -459,7 +459,7 @@
         <v>470</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>36527.34236111111</v>
+        <v>36527.34239583334</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -471,20 +471,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>470_10</t>
+          <t>471_10</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>36527.34236111111</v>
+        <v>36527.34140046296</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -493,17 +493,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>473_10</t>
+          <t>472_10</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>36527.36041666667</v>
+        <v>36527.50944444445</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -525,10 +525,10 @@
         <v>473</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>36527.36041666667</v>
+        <v>36527.36099537037</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -537,17 +537,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>477_10</t>
+          <t>474_10</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>36527.36597222222</v>
+        <v>36527.53738425926</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -559,20 +559,20 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>477_10</t>
+          <t>475_10</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>36527.36597222222</v>
+        <v>36527.60099537037</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>476</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>36527.37222222222</v>
+        <v>36527.37237268518</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -603,17 +603,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>479_10</t>
+          <t>477_10</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>36527.39375</v>
+        <v>36527.36630787037</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -625,20 +625,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>479_10</t>
+          <t>478_10</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>36527.39375</v>
+        <v>36527.57719907408</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -647,20 +647,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>470_10</t>
+          <t>479_10</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>36527.4</v>
+        <v>36527.39393518519</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -669,17 +669,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>470_20</t>
+          <t>480_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>36527.4</v>
+        <v>36527.51644675926</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -691,20 +691,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>470_20</t>
+          <t>481_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>36527.4</v>
+        <v>36527.49363425926</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -713,20 +713,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>471_10</t>
+          <t>482_10</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>36527.42013888889</v>
+        <v>36527.56313657408</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -735,17 +735,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>471_20</t>
+          <t>483_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>36527.42013888889</v>
+        <v>36527.51475694445</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -757,17 +757,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>469_10</t>
+          <t>484_10</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>36527.43055555555</v>
+        <v>36527.4366087963</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -779,20 +779,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>469_10</t>
+          <t>485_10</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>36527.43055555555</v>
+        <v>36527.4970949074</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -801,17 +801,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>484_10</t>
+          <t>486_10</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>36527.43611111111</v>
+        <v>36527.57876157408</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -823,20 +823,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>477_10</t>
+          <t>487_10</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>36527.44375</v>
+        <v>36527.50672453704</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -845,20 +845,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>477_20</t>
+          <t>471_10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>36527.44375</v>
+        <v>36527.34140046296</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -867,20 +867,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>477_20</t>
+          <t>471_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>36527.44375</v>
+        <v>36527.42056712963</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -889,20 +889,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>470_20</t>
+          <t>471_20</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>36527.44513888889</v>
+        <v>36527.42056712963</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -911,20 +911,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>470_30</t>
+          <t>470_10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>470</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>36527.44513888889</v>
+        <v>36527.34239583334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -933,20 +933,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>470_30</t>
+          <t>470_10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
         <v>470</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>36527.44513888889</v>
+        <v>36527.40003472222</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -955,17 +955,17 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>468_10</t>
+          <t>470_20</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>36527.48125</v>
+        <v>36527.40003472222</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -977,17 +977,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>468_10</t>
+          <t>473_10</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>36527.48125</v>
+        <v>36527.36099537037</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -999,17 +999,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>470_30</t>
+          <t>473_10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>36527.49027777778</v>
+        <v>36527.50752314815</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -1021,17 +1021,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>470_40</t>
+          <t>473_20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>36527.49027777778</v>
+        <v>36527.50752314815</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1043,17 +1043,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>470_40</t>
+          <t>477_10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>36527.49027777778</v>
+        <v>36527.36630787037</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -1065,20 +1065,20 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>481_10</t>
+          <t>477_10</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>36527.49305555555</v>
+        <v>36527.44408564815</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -1087,20 +1087,20 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>481_10</t>
+          <t>477_20</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>36527.49305555555</v>
+        <v>36527.44408564815</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1109,20 +1109,20 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>485_10</t>
+          <t>479_10</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>36527.49652777778</v>
+        <v>36527.39393518519</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1131,17 +1131,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>469_10</t>
+          <t>479_10</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>36527.49930555555</v>
+        <v>36527.56407407407</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -1153,20 +1153,20 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>484_10</t>
+          <t>479_20</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>36527.49930555555</v>
+        <v>36527.56407407407</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -1175,20 +1175,20 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>469_20</t>
+          <t>470_20</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>20</v>
       </c>
       <c r="C37" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>36527.49930555555</v>
+        <v>36527.40003472222</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -1197,17 +1197,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>477_20</t>
+          <t>470_20</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>36527.49930555555</v>
+        <v>36527.44517361111</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -1219,17 +1219,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>477_30</t>
+          <t>470_30</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>36527.49930555555</v>
+        <v>36527.44517361111</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1241,17 +1241,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>477_30</t>
+          <t>469_10</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>36527.49930555555</v>
+        <v>36527.43081018519</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -1263,20 +1263,20 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>487_10</t>
+          <t>469_10</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>36527.50625</v>
+        <v>36527.49956018518</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -1285,20 +1285,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>473_10</t>
+          <t>469_20</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>36527.50694444445</v>
+        <v>36527.49956018518</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -1307,17 +1307,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>476_10</t>
+          <t>477_20</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C43" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>36527.50694444445</v>
+        <v>36527.44408564815</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -1329,20 +1329,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>473_20</t>
+          <t>477_20</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>20</v>
       </c>
       <c r="C44" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>36527.50694444445</v>
+        <v>36527.49964120371</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -1351,20 +1351,20 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>473_20</t>
+          <t>477_30</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>36527.50694444445</v>
+        <v>36527.49964120371</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -1373,20 +1373,20 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>472_10</t>
+          <t>470_30</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>36527.50902777778</v>
+        <v>36527.44517361111</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -1395,20 +1395,20 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>472_10</t>
+          <t>470_30</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>36527.50902777778</v>
+        <v>36527.4903125</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -1417,17 +1417,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>483_10</t>
+          <t>470_40</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C48" t="n">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>36527.51458333333</v>
+        <v>36527.4903125</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1439,20 +1439,20 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>480_10</t>
+          <t>468_10</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>36527.51597222222</v>
+        <v>36527.48138888889</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -1461,20 +1461,20 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>474_10</t>
+          <t>468_10</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>36527.53680555556</v>
+        <v>36527.60986111111</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -1483,20 +1483,20 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>470_40</t>
+          <t>468_20</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>36527.54166666666</v>
+        <v>36527.60986111111</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -1505,20 +1505,20 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>470_50</t>
+          <t>470_40</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C52" t="n">
         <v>470</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>36527.54166666666</v>
+        <v>36527.4903125</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -1527,17 +1527,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>484_10</t>
+          <t>470_40</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C53" t="n">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>36527.54236111111</v>
+        <v>36527.54170138889</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
@@ -1549,20 +1549,20 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>483_10</t>
+          <t>470_50</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C54" t="n">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>36527.54236111111</v>
+        <v>36527.54170138889</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -1571,20 +1571,20 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>484_20</t>
+          <t>481_10</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>36527.54236111111</v>
+        <v>36527.49363425926</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -1593,20 +1593,20 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>482_10</t>
+          <t>481_10</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>36527.5625</v>
+        <v>36527.5880787037</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -1615,20 +1615,20 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>482_10</t>
+          <t>481_20</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C57" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>36527.5625</v>
+        <v>36527.5880787037</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -1637,17 +1637,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>484_20</t>
+          <t>484_10</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
         <v>484</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>36527.5625</v>
+        <v>36527.49956018518</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
@@ -1659,17 +1659,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>477_30</t>
+          <t>484_10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>36527.5625</v>
+        <v>36527.54261574074</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -1681,17 +1681,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>477_40</t>
+          <t>484_20</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C60" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>36527.5625</v>
+        <v>36527.54261574074</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1703,20 +1703,20 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>479_10</t>
+          <t>477_30</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>36527.56388888889</v>
+        <v>36527.49964120371</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -1725,20 +1725,20 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>479_20</t>
+          <t>477_30</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>36527.56388888889</v>
+        <v>36527.56283564815</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -1747,20 +1747,20 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>471_20</t>
+          <t>477_40</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C63" t="n">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>36527.56388888889</v>
+        <v>36527.56283564815</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -1779,10 +1779,10 @@
         <v>476</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>36527.57152777778</v>
+        <v>36527.50752314815</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -1791,20 +1791,20 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>480_10</t>
+          <t>476_10</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>36527.57152777778</v>
+        <v>36527.57210648148</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>476</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>36527.57152777778</v>
+        <v>36527.57210648148</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -1835,20 +1835,20 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>478_10</t>
+          <t>473_20</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C67" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>36527.57708333333</v>
+        <v>36527.50752314815</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -1857,20 +1857,20 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>486_10</t>
+          <t>473_20</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C68" t="n">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>36527.57847222222</v>
+        <v>36527.66724537037</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -1879,20 +1879,20 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>481_10</t>
+          <t>473_30</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>36527.5875</v>
+        <v>36527.66724537037</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -1901,20 +1901,20 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>481_20</t>
+          <t>472_10</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>36527.5875</v>
+        <v>36527.50944444445</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -1923,20 +1923,20 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>479_20</t>
+          <t>472_10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>36527.5875</v>
+        <v>36527.70388888889</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -1945,17 +1945,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>475_10</t>
+          <t>472_20</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C72" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>36527.60069444445</v>
+        <v>36527.70388888889</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -1967,20 +1967,20 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>484_20</t>
+          <t>483_10</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>36527.60902777778</v>
+        <v>36527.54261574074</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -1989,20 +1989,20 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>484_30</t>
+          <t>483_10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>36527.60902777778</v>
+        <v>36527.7780324074</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -2011,20 +2011,20 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>468_10</t>
+          <t>483_20</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>36527.60972222222</v>
+        <v>36527.7780324074</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -2033,17 +2033,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>485_10</t>
+          <t>484_20</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>36527.60972222222</v>
+        <v>36527.56283564815</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -2055,20 +2055,20 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>468_20</t>
+          <t>484_20</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>20</v>
       </c>
       <c r="C77" t="n">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>36527.60972222222</v>
+        <v>36527.60936342592</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -2077,20 +2077,20 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>473_20</t>
+          <t>484_30</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>36527.66666666666</v>
+        <v>36527.60936342592</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -2099,17 +2099,17 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>476_20</t>
+          <t>482_10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>36527.66666666666</v>
+        <v>36527.56313657408</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -2121,20 +2121,20 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>473_30</t>
+          <t>482_10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>36527.66666666666</v>
+        <v>36527.67216435185</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -2143,20 +2143,20 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>482_10</t>
+          <t>482_20</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C81" t="n">
         <v>482</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>36527.67152777778</v>
+        <v>36527.67216435185</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -2165,20 +2165,20 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>482_20</t>
+          <t>471_20</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>20</v>
       </c>
       <c r="C82" t="n">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>36527.67152777778</v>
+        <v>36527.56407407407</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
@@ -2187,17 +2187,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>485_10</t>
+          <t>471_20</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C83" t="n">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>36527.67222222222</v>
+        <v>36527.70921296296</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
@@ -2209,17 +2209,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>485_20</t>
+          <t>471_30</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C84" t="n">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>36527.67222222222</v>
+        <v>36527.70921296296</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -2231,17 +2231,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>469_20</t>
+          <t>480_10</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C85" t="n">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>36527.67222222222</v>
+        <v>36527.57210648148</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -2253,17 +2253,17 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>479_20</t>
+          <t>480_10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>36527.6875</v>
+        <v>36527.69571759259</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
@@ -2275,20 +2275,20 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>468_20</t>
+          <t>480_20</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>20</v>
       </c>
       <c r="C87" t="n">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>36527.6875</v>
+        <v>36527.69571759259</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
@@ -2297,20 +2297,20 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>479_30</t>
+          <t>479_20</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C88" t="n">
         <v>479</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>36527.6875</v>
+        <v>36527.5880787037</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
@@ -2319,17 +2319,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>480_10</t>
+          <t>479_20</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>36527.69513888889</v>
+        <v>36527.6880787037</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
@@ -2341,20 +2341,20 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>474_10</t>
+          <t>479_30</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C90" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>36527.69513888889</v>
+        <v>36527.6880787037</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
@@ -2363,20 +2363,20 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>480_20</t>
+          <t>485_10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>36527.69513888889</v>
+        <v>36527.60986111111</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -2385,20 +2385,20 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>480_20</t>
+          <t>485_10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>36527.69513888889</v>
+        <v>36527.67236111111</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
@@ -2407,20 +2407,20 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>472_10</t>
+          <t>485_20</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C93" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>36527.70347222222</v>
+        <v>36527.67236111111</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
@@ -2429,20 +2429,20 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>472_20</t>
+          <t>476_20</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>20</v>
       </c>
       <c r="C94" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>36527.70347222222</v>
+        <v>36527.66724537037</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -2451,20 +2451,20 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>477_40</t>
+          <t>476_20</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C95" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>36527.70347222222</v>
+        <v>36527.72280092593</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -2473,20 +2473,20 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>487_10</t>
+          <t>476_30</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C96" t="n">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>36527.70902777778</v>
+        <v>36527.72280092593</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -2495,20 +2495,20 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>471_20</t>
+          <t>469_20</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>36527.70902777778</v>
+        <v>36527.67236111111</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
@@ -2517,20 +2517,20 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>471_30</t>
+          <t>469_20</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C98" t="n">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>36527.70902777778</v>
+        <v>36527.78416666666</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
@@ -2539,20 +2539,20 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>476_20</t>
+          <t>469_30</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C99" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>36527.72222222222</v>
+        <v>36527.78416666666</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -2561,17 +2561,17 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>482_20</t>
+          <t>468_20</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>20</v>
       </c>
       <c r="C100" t="n">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>36527.72222222222</v>
+        <v>36527.6880787037</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -2583,20 +2583,20 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>476_30</t>
+          <t>468_20</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>36527.72222222222</v>
+        <v>36527.74780092593</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -2605,20 +2605,20 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>476_30</t>
+          <t>468_30</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>30</v>
       </c>
       <c r="C102" t="n">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>36527.72222222222</v>
+        <v>36527.74780092593</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -2627,20 +2627,20 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>468_20</t>
+          <t>480_20</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>36527.74722222222</v>
+        <v>36527.69571759259</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -2649,20 +2649,20 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>468_30</t>
+          <t>480_20</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C104" t="n">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>36527.74722222222</v>
+        <v>36527.83530092592</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
@@ -2671,20 +2671,20 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>475_10</t>
+          <t>480_30</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C105" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>36527.75208333333</v>
+        <v>36527.83530092592</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
@@ -2693,20 +2693,20 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>477_40</t>
+          <t>474_10</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>36527.75208333333</v>
+        <v>36527.69571759259</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -2715,20 +2715,20 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>477_50</t>
+          <t>474_10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>36527.75208333333</v>
+        <v>36527.78738425926</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
@@ -2737,20 +2737,20 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>487_10</t>
+          <t>474_20</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C108" t="n">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>36527.77708333333</v>
+        <v>36527.78738425926</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
@@ -2759,17 +2759,17 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>486_10</t>
+          <t>477_40</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C109" t="n">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>36527.77708333333</v>
+        <v>36527.70388888889</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
@@ -2781,20 +2781,20 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>487_20</t>
+          <t>477_40</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C110" t="n">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>36527.77708333333</v>
+        <v>36527.7525</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
@@ -2803,20 +2803,20 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>483_10</t>
+          <t>477_50</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C111" t="n">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>36527.77777777778</v>
+        <v>36527.7525</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
@@ -2825,20 +2825,20 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>483_20</t>
+          <t>487_10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>36527.77777777778</v>
+        <v>36527.70921296296</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
@@ -2847,20 +2847,20 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>485_20</t>
+          <t>487_10</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>36527.77777777778</v>
+        <v>36527.77726851852</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
@@ -2869,20 +2869,20 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>469_20</t>
+          <t>487_20</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>20</v>
       </c>
       <c r="C114" t="n">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>36527.78402777778</v>
+        <v>36527.77726851852</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
@@ -2891,20 +2891,20 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>469_30</t>
+          <t>482_20</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C115" t="n">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>36527.78402777778</v>
+        <v>36527.72280092593</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -2913,20 +2913,20 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>470_50</t>
+          <t>482_20</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C116" t="n">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>36527.78402777778</v>
+        <v>36527.86168981482</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
@@ -2935,20 +2935,20 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>474_10</t>
+          <t>482_30</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C117" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>36527.78680555556</v>
+        <v>36527.86168981482</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
@@ -2957,17 +2957,17 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>478_10</t>
+          <t>476_30</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C118" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>36527.78680555556</v>
+        <v>36527.72280092593</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -2979,20 +2979,20 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>474_20</t>
+          <t>476_30</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C119" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>36527.78680555556</v>
+        <v>36527.81516203703</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
@@ -3001,20 +3001,20 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>476_30</t>
+          <t>476_40</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C120" t="n">
         <v>476</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>36527.81458333333</v>
+        <v>36527.81516203703</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
@@ -3023,20 +3023,20 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>476_40</t>
+          <t>475_10</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C121" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>36527.81458333333</v>
+        <v>36527.7525</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
@@ -3045,20 +3045,20 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>484_30</t>
+          <t>475_10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>36527.82083333333</v>
+        <v>36527.86916666666</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
@@ -3067,20 +3067,20 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>470_50</t>
+          <t>475_20</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C123" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>36527.82083333333</v>
+        <v>36527.86916666666</v>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
@@ -3089,20 +3089,20 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>480_20</t>
+          <t>486_10</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C124" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>36527.83472222222</v>
+        <v>36527.77726851852</v>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124" t="b">
         <v>1</v>
@@ -3111,20 +3111,20 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>480_30</t>
+          <t>486_10</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>36527.83472222222</v>
+        <v>36528.0925462963</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
@@ -3133,20 +3133,20 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>480_30</t>
+          <t>486_20</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C126" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>36527.83472222222</v>
+        <v>36528.0925462963</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
@@ -3155,20 +3155,20 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>478_10</t>
+          <t>485_20</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C127" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>36527.84444444445</v>
+        <v>36527.7780324074</v>
       </c>
       <c r="E127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
@@ -3177,20 +3177,20 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>478_20</t>
+          <t>485_20</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>20</v>
       </c>
       <c r="C128" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>36527.84444444445</v>
+        <v>36527.8717824074</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
@@ -3199,20 +3199,20 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>473_30</t>
+          <t>485_30</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>30</v>
       </c>
       <c r="C129" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>36527.84444444445</v>
+        <v>36527.8717824074</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
         <v>1</v>
@@ -3221,20 +3221,20 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>482_20</t>
+          <t>470_50</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C130" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>36527.86111111111</v>
+        <v>36527.78416666666</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
@@ -3243,20 +3243,20 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>482_30</t>
+          <t>470_50</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C131" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>36527.86111111111</v>
+        <v>36527.82097222222</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -3265,20 +3265,20 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>475_10</t>
+          <t>478_10</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>36527.86875</v>
+        <v>36527.78738425926</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -3287,20 +3287,20 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>475_20</t>
+          <t>478_10</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C133" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>36527.86875</v>
+        <v>36527.84502314815</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -3309,20 +3309,20 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>479_30</t>
+          <t>478_20</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C134" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>36527.86875</v>
+        <v>36527.84502314815</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -3331,20 +3331,20 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>485_20</t>
+          <t>484_30</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C135" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>36527.87152777778</v>
+        <v>36527.82097222222</v>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -3353,20 +3353,20 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>485_30</t>
+          <t>484_30</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>30</v>
       </c>
       <c r="C136" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>36527.87152777778</v>
+        <v>36527.88625</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -3375,20 +3375,20 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>468_30</t>
+          <t>484_40</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C137" t="n">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>36527.87152777778</v>
+        <v>36527.88625</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -3397,17 +3397,17 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>485_30</t>
+          <t>480_30</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>30</v>
       </c>
       <c r="C138" t="n">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>36527.87152777778</v>
+        <v>36527.83530092592</v>
       </c>
       <c r="E138" t="n">
         <v>2</v>
@@ -3419,20 +3419,20 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>478_20</t>
+          <t>480_30</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C139" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>36527.88611111111</v>
+        <v>36527.99780092593</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -3441,20 +3441,20 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>484_30</t>
+          <t>480_40</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C140" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>36527.88611111111</v>
+        <v>36527.99780092593</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -3463,20 +3463,20 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>484_40</t>
+          <t>473_30</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C141" t="n">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>36527.88611111111</v>
+        <v>36527.84502314815</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -3485,17 +3485,17 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>485_30</t>
+          <t>473_30</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>30</v>
       </c>
       <c r="C142" t="n">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>36527.925</v>
+        <v>36527.99710648148</v>
       </c>
       <c r="E142" t="n">
         <v>3</v>
@@ -3507,17 +3507,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>485_40</t>
+          <t>473_40</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>40</v>
       </c>
       <c r="C143" t="n">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>36527.925</v>
+        <v>36527.99710648148</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -3529,20 +3529,20 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>478_20</t>
+          <t>479_30</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C144" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>36527.94791666666</v>
+        <v>36527.86916666666</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -3551,20 +3551,20 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>478_30</t>
+          <t>479_30</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>30</v>
       </c>
       <c r="C145" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>36527.94791666666</v>
+        <v>36527.95597222223</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -3573,20 +3573,20 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>478_30</t>
+          <t>479_40</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C146" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>36527.94791666666</v>
+        <v>36527.95597222223</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>
@@ -3595,17 +3595,17 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>485_40</t>
+          <t>468_30</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C147" t="n">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>36527.94791666666</v>
+        <v>36527.8717824074</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -3617,20 +3617,20 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>483_20</t>
+          <t>468_30</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C148" t="n">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>36527.95555555556</v>
+        <v>36528.00233796296</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
@@ -3639,20 +3639,20 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>479_30</t>
+          <t>468_40</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C149" t="n">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>36527.95555555556</v>
+        <v>36528.00233796296</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
@@ -3661,20 +3661,20 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>479_40</t>
+          <t>485_30</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>36527.95555555556</v>
+        <v>36527.8717824074</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" t="b">
         <v>1</v>
@@ -3683,20 +3683,20 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>472_20</t>
+          <t>485_30</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C151" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>36527.99652777778</v>
+        <v>36527.92525462963</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
@@ -3705,20 +3705,20 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>473_30</t>
+          <t>485_40</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C152" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>36527.99652777778</v>
+        <v>36527.92525462963</v>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
@@ -3727,20 +3727,20 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>473_40</t>
+          <t>478_20</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C153" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>36527.99652777778</v>
+        <v>36527.88625</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="b">
         <v>1</v>
@@ -3749,20 +3749,20 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>473_40</t>
+          <t>478_20</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C154" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>36527.99652777778</v>
+        <v>36527.94805555556</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
@@ -3771,20 +3771,20 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>480_30</t>
+          <t>478_30</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>30</v>
       </c>
       <c r="C155" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>36527.99722222222</v>
+        <v>36527.94805555556</v>
       </c>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
@@ -3793,17 +3793,17 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>482_30</t>
+          <t>478_30</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>30</v>
       </c>
       <c r="C156" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>36527.99722222222</v>
+        <v>36527.94805555556</v>
       </c>
       <c r="E156" t="n">
         <v>2</v>
@@ -3815,20 +3815,20 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>480_40</t>
+          <t>478_30</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C157" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>36527.99722222222</v>
+        <v>36528.03694444444</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
@@ -3837,20 +3837,20 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>485_40</t>
+          <t>478_40</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>40</v>
       </c>
       <c r="C158" t="n">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>36527.99791666667</v>
+        <v>36528.03694444444</v>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
@@ -3859,17 +3859,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>479_40</t>
+          <t>485_40</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>40</v>
       </c>
       <c r="C159" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>36527.99791666667</v>
+        <v>36527.94805555556</v>
       </c>
       <c r="E159" t="n">
         <v>2</v>
@@ -3881,20 +3881,20 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>485_50</t>
+          <t>485_40</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C160" t="n">
         <v>485</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>36527.99791666667</v>
+        <v>36527.99805555555</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F160" t="b">
         <v>1</v>
@@ -3903,20 +3903,20 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>487_20</t>
+          <t>485_50</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C161" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>36528.00208333333</v>
+        <v>36527.99805555555</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161" t="b">
         <v>1</v>
@@ -3925,20 +3925,20 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>468_30</t>
+          <t>483_20</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C162" t="n">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>36528.00208333333</v>
+        <v>36527.95597222223</v>
       </c>
       <c r="E162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F162" t="b">
         <v>1</v>
@@ -3947,20 +3947,20 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>468_40</t>
+          <t>483_20</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>36528.00208333333</v>
+        <v>36528.22472222222</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
@@ -3969,20 +3969,20 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>478_30</t>
+          <t>483_30</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>30</v>
       </c>
       <c r="C164" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>36528.03680555556</v>
+        <v>36528.22472222222</v>
       </c>
       <c r="E164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
@@ -3991,20 +3991,20 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>478_40</t>
+          <t>472_20</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C165" t="n">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>36528.03680555556</v>
+        <v>36527.99710648148</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" t="b">
         <v>1</v>
@@ -4013,20 +4013,20 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>478_40</t>
+          <t>472_20</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C166" t="n">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>36528.03680555556</v>
+        <v>36528.19432870371</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F166" t="b">
         <v>1</v>
@@ -4035,20 +4035,20 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>487_20</t>
+          <t>472_30</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C167" t="n">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>36528.07986111111</v>
+        <v>36528.19432870371</v>
       </c>
       <c r="E167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
@@ -4057,20 +4057,20 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>487_30</t>
+          <t>473_40</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C168" t="n">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>36528.07986111111</v>
+        <v>36527.99710648148</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" t="b">
         <v>1</v>
@@ -4079,20 +4079,20 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>485_50</t>
+          <t>473_40</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C169" t="n">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>36528.07986111111</v>
+        <v>36528.14502314815</v>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F169" t="b">
         <v>1</v>
@@ -4101,20 +4101,20 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>475_20</t>
+          <t>473_50</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C170" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>36528.08541666667</v>
+        <v>36528.14502314815</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="b">
         <v>1</v>
@@ -4133,10 +4133,10 @@
         <v>482</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>36528.08541666667</v>
+        <v>36527.99780092593</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F171" t="b">
         <v>1</v>
@@ -4145,20 +4145,20 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>482_40</t>
+          <t>482_30</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C172" t="n">
         <v>482</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>36528.08541666667</v>
+        <v>36528.08599537037</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F172" t="b">
         <v>1</v>
@@ -4167,20 +4167,20 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>479_40</t>
+          <t>482_40</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>40</v>
       </c>
       <c r="C173" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>36528.09027777778</v>
+        <v>36528.08599537037</v>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173" t="b">
         <v>1</v>
@@ -4189,17 +4189,17 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>480_40</t>
+          <t>479_40</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>40</v>
       </c>
       <c r="C174" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>36528.09027777778</v>
+        <v>36527.99805555555</v>
       </c>
       <c r="E174" t="n">
         <v>2</v>
@@ -4211,20 +4211,20 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>479_50</t>
+          <t>479_40</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C175" t="n">
         <v>479</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>36528.09027777778</v>
+        <v>36528.09041666667</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
@@ -4243,10 +4243,10 @@
         <v>479</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>36528.09027777778</v>
+        <v>36528.09041666667</v>
       </c>
       <c r="E176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" t="b">
         <v>1</v>
@@ -4255,20 +4255,20 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>486_10</t>
+          <t>487_20</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C177" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>36528.09236111111</v>
+        <v>36528.00233796296</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" t="b">
         <v>1</v>
@@ -4277,20 +4277,20 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>486_20</t>
+          <t>487_20</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>20</v>
       </c>
       <c r="C178" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>36528.09236111111</v>
+        <v>36528.08011574074</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F178" t="b">
         <v>1</v>
@@ -4299,20 +4299,20 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>481_20</t>
+          <t>487_30</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C179" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>36528.09236111111</v>
+        <v>36528.08011574074</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" t="b">
         <v>1</v>
@@ -4331,10 +4331,10 @@
         <v>478</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>36528.09930555556</v>
+        <v>36528.03694444444</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F180" t="b">
         <v>1</v>
@@ -4343,20 +4343,20 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>478_50</t>
+          <t>478_40</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C181" t="n">
         <v>478</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>36528.09930555556</v>
+        <v>36528.09944444444</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F181" t="b">
         <v>1</v>
@@ -4375,10 +4375,10 @@
         <v>478</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>36528.09930555556</v>
+        <v>36528.09944444444</v>
       </c>
       <c r="E182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F182" t="b">
         <v>1</v>
@@ -4387,17 +4387,17 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>487_30</t>
+          <t>485_50</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C183" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>36528.14444444444</v>
+        <v>36528.08011574074</v>
       </c>
       <c r="E183" t="n">
         <v>2</v>
@@ -4409,17 +4409,17 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>473_40</t>
+          <t>485_50</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C184" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>36528.14444444444</v>
+        <v>36528.14469907407</v>
       </c>
       <c r="E184" t="n">
         <v>3</v>
@@ -4431,20 +4431,20 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>482_40</t>
+          <t>485_60</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C185" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>36528.14444444444</v>
+        <v>36528.14469907407</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" t="b">
         <v>1</v>
@@ -4453,20 +4453,20 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>473_50</t>
+          <t>475_20</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C186" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>36528.14444444444</v>
+        <v>36528.08599537037</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
@@ -4475,17 +4475,17 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>485_50</t>
+          <t>475_20</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C187" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>36528.14444444444</v>
+        <v>36528.17349537037</v>
       </c>
       <c r="E187" t="n">
         <v>3</v>
@@ -4497,17 +4497,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>485_60</t>
+          <t>475_30</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C188" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>36528.14444444444</v>
+        <v>36528.17349537037</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -4519,20 +4519,20 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>478_50</t>
+          <t>479_50</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>50</v>
       </c>
       <c r="C189" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>36528.16388888889</v>
+        <v>36528.09041666667</v>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F189" t="b">
         <v>1</v>
@@ -4541,20 +4541,20 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>478_60</t>
+          <t>479_50</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C190" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>36528.16388888889</v>
+        <v>36528.17027777778</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
@@ -4563,20 +4563,20 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>485_60</t>
+          <t>479_60</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>60</v>
       </c>
       <c r="C191" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>36528.16388888889</v>
+        <v>36528.17027777778</v>
       </c>
       <c r="E191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191" t="b">
         <v>1</v>
@@ -4585,17 +4585,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>486_20</t>
+          <t>480_40</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C192" t="n">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>36528.17013888889</v>
+        <v>36528.09041666667</v>
       </c>
       <c r="E192" t="n">
         <v>2</v>
@@ -4607,17 +4607,17 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>479_50</t>
+          <t>480_40</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C193" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>36528.17013888889</v>
+        <v>36528.255</v>
       </c>
       <c r="E193" t="n">
         <v>3</v>
@@ -4629,17 +4629,17 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>479_60</t>
+          <t>480_50</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C194" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>36528.17013888889</v>
+        <v>36528.255</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -4651,20 +4651,20 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>475_20</t>
+          <t>481_20</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>20</v>
       </c>
       <c r="C195" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>36528.17291666667</v>
+        <v>36528.0925462963</v>
       </c>
       <c r="E195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F195" t="b">
         <v>1</v>
@@ -4673,20 +4673,20 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>475_30</t>
+          <t>481_20</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C196" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>36528.17291666667</v>
+        <v>36528.17449074074</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
@@ -4695,20 +4695,20 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>468_40</t>
+          <t>481_30</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C197" t="n">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>36528.17291666667</v>
+        <v>36528.17449074074</v>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="b">
         <v>1</v>
@@ -4717,20 +4717,20 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>481_20</t>
+          <t>478_50</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C198" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>36528.17430555556</v>
+        <v>36528.09944444444</v>
       </c>
       <c r="E198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F198" t="b">
         <v>1</v>
@@ -4739,20 +4739,20 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>481_30</t>
+          <t>478_50</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C199" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>36528.17430555556</v>
+        <v>36528.16402777778</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F199" t="b">
         <v>1</v>
@@ -4761,20 +4761,20 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>469_30</t>
+          <t>478_60</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C200" t="n">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>36528.17430555556</v>
+        <v>36528.16402777778</v>
       </c>
       <c r="E200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" t="b">
         <v>1</v>
@@ -4783,20 +4783,20 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>472_20</t>
+          <t>482_40</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C201" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>36528.19375</v>
+        <v>36528.14469907407</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F201" t="b">
         <v>1</v>
@@ -4805,20 +4805,20 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>472_30</t>
+          <t>482_40</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C202" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>36528.19375</v>
+        <v>36528.26344907407</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F202" t="b">
         <v>1</v>
@@ -4827,20 +4827,20 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>471_30</t>
+          <t>482_50</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C203" t="n">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>36528.19375</v>
+        <v>36528.26344907407</v>
       </c>
       <c r="E203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203" t="b">
         <v>1</v>
@@ -4849,20 +4849,20 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>483_20</t>
+          <t>487_30</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C204" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>36528.22430555556</v>
+        <v>36528.14502314815</v>
       </c>
       <c r="E204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F204" t="b">
         <v>1</v>
@@ -4871,20 +4871,20 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>474_20</t>
+          <t>487_30</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C205" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>36528.22430555556</v>
+        <v>36528.23043981481</v>
       </c>
       <c r="E205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F205" t="b">
         <v>1</v>
@@ -4893,17 +4893,17 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>483_30</t>
+          <t>487_40</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C206" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>36528.22430555556</v>
+        <v>36528.23043981481</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -4915,17 +4915,17 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>481_30</t>
+          <t>485_60</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C207" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>36528.22430555556</v>
+        <v>36528.16402777778</v>
       </c>
       <c r="E207" t="n">
         <v>2</v>
@@ -4937,17 +4937,17 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>468_40</t>
+          <t>485_60</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C208" t="n">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>36528.22430555556</v>
+        <v>36528.23833333333</v>
       </c>
       <c r="E208" t="n">
         <v>3</v>
@@ -4959,17 +4959,17 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>468_50</t>
+          <t>485_70</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C209" t="n">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>36528.22430555556</v>
+        <v>36528.23833333333</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -4981,20 +4981,20 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>487_30</t>
+          <t>486_20</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C210" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>36528.22986111111</v>
+        <v>36528.17027777778</v>
       </c>
       <c r="E210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F210" t="b">
         <v>1</v>
@@ -5003,20 +5003,20 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>483_30</t>
+          <t>486_20</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C211" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>36528.22986111111</v>
+        <v>36528.42930555555</v>
       </c>
       <c r="E211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F211" t="b">
         <v>1</v>
@@ -5025,17 +5025,17 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>487_40</t>
+          <t>486_30</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C212" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>36528.22986111111</v>
+        <v>36528.42930555555</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5047,20 +5047,20 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>469_30</t>
+          <t>468_40</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C213" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>36528.23472222222</v>
+        <v>36528.17349537037</v>
       </c>
       <c r="E213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F213" t="b">
         <v>1</v>
@@ -5069,20 +5069,20 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>469_40</t>
+          <t>468_40</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>40</v>
       </c>
       <c r="C214" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>36528.23472222222</v>
+        <v>36528.22488425926</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F214" t="b">
         <v>1</v>
@@ -5091,20 +5091,20 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>484_40</t>
+          <t>468_50</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C215" t="n">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>36528.23472222222</v>
+        <v>36528.22488425926</v>
       </c>
       <c r="E215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F215" t="b">
         <v>1</v>
@@ -5113,20 +5113,20 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>485_60</t>
+          <t>469_30</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C216" t="n">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>36528.23819444444</v>
+        <v>36528.17449074074</v>
       </c>
       <c r="E216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F216" t="b">
         <v>1</v>
@@ -5135,20 +5135,20 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>485_70</t>
+          <t>469_30</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C217" t="n">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>36528.23819444444</v>
+        <v>36528.23490740741</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F217" t="b">
         <v>1</v>
@@ -5157,20 +5157,20 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>472_30</t>
+          <t>469_40</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C218" t="n">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>36528.25486111111</v>
+        <v>36528.23490740741</v>
       </c>
       <c r="E218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218" t="b">
         <v>1</v>
@@ -5179,20 +5179,20 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>480_40</t>
+          <t>471_30</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C219" t="n">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>36528.25486111111</v>
+        <v>36528.19432870371</v>
       </c>
       <c r="E219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F219" t="b">
         <v>1</v>
@@ -5201,20 +5201,20 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>480_50</t>
+          <t>471_30</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C220" t="n">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>36528.25486111111</v>
+        <v>36528.27210648148</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F220" t="b">
         <v>1</v>
@@ -5223,20 +5223,20 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>484_40</t>
+          <t>471_40</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>40</v>
       </c>
       <c r="C221" t="n">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>36528.26111111111</v>
+        <v>36528.27210648148</v>
       </c>
       <c r="E221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F221" t="b">
         <v>1</v>
@@ -5245,20 +5245,20 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>484_50</t>
+          <t>474_20</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C222" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>36528.26111111111</v>
+        <v>36528.22472222222</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222" t="b">
         <v>1</v>
@@ -5267,20 +5267,20 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>484_50</t>
+          <t>474_20</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C223" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>36528.26111111111</v>
+        <v>36528.4525</v>
       </c>
       <c r="E223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F223" t="b">
         <v>1</v>
@@ -5289,20 +5289,20 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>478_60</t>
+          <t>474_30</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C224" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>36528.26111111111</v>
+        <v>36528.4525</v>
       </c>
       <c r="E224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" t="b">
         <v>1</v>
@@ -5311,17 +5311,17 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>475_30</t>
+          <t>481_30</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>30</v>
       </c>
       <c r="C225" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>36528.26319444444</v>
+        <v>36528.22488425926</v>
       </c>
       <c r="E225" t="n">
         <v>2</v>
@@ -5333,17 +5333,17 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>482_40</t>
+          <t>481_30</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C226" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>36528.26319444444</v>
+        <v>36528.30613425926</v>
       </c>
       <c r="E226" t="n">
         <v>3</v>
@@ -5355,17 +5355,17 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>482_50</t>
+          <t>481_40</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C227" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>36528.26319444444</v>
+        <v>36528.30613425926</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5377,17 +5377,17 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>482_50</t>
+          <t>483_30</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C228" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>36528.26319444444</v>
+        <v>36528.23043981481</v>
       </c>
       <c r="E228" t="n">
         <v>2</v>
@@ -5399,17 +5399,17 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>471_30</t>
+          <t>483_30</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>30</v>
       </c>
       <c r="C229" t="n">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>36528.27152777778</v>
+        <v>36528.48738425926</v>
       </c>
       <c r="E229" t="n">
         <v>3</v>
@@ -5421,17 +5421,17 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>471_40</t>
+          <t>483_40</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>40</v>
       </c>
       <c r="C230" t="n">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>36528.27152777778</v>
+        <v>36528.48738425926</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5443,17 +5443,17 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>477_50</t>
+          <t>484_40</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C231" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>36528.27152777778</v>
+        <v>36528.23490740741</v>
       </c>
       <c r="E231" t="n">
         <v>2</v>
@@ -5465,17 +5465,17 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>481_30</t>
+          <t>484_40</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C232" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>36528.30555555555</v>
+        <v>36528.2612962963</v>
       </c>
       <c r="E232" t="n">
         <v>3</v>
@@ -5487,17 +5487,17 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>481_40</t>
+          <t>484_50</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C233" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>36528.30555555555</v>
+        <v>36528.2612962963</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5509,20 +5509,20 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>477_50</t>
+          <t>472_30</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C234" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>36528.31111111111</v>
+        <v>36528.255</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F234" t="b">
         <v>1</v>
@@ -5531,20 +5531,20 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>473_50</t>
+          <t>472_30</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C235" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>36528.31111111111</v>
+        <v>36528.45986111111</v>
       </c>
       <c r="E235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F235" t="b">
         <v>1</v>
@@ -5553,20 +5553,20 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>475_30</t>
+          <t>472_40</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C236" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>36528.31319444445</v>
+        <v>36528.45986111111</v>
       </c>
       <c r="E236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F236" t="b">
         <v>1</v>
@@ -5575,20 +5575,20 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>475_40</t>
+          <t>478_60</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C237" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>36528.31319444445</v>
+        <v>36528.2612962963</v>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F237" t="b">
         <v>1</v>
@@ -5597,20 +5597,20 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>468_50</t>
+          <t>478_60</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C238" t="n">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>36528.31319444445</v>
+        <v>36528.32796296296</v>
       </c>
       <c r="E238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F238" t="b">
         <v>1</v>
@@ -5619,20 +5619,20 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>478_60</t>
+          <t>484_50</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C239" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>36528.32777777778</v>
+        <v>36528.2612962963</v>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F239" t="b">
         <v>1</v>
@@ -5641,20 +5641,20 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>485_70</t>
+          <t>484_50</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C240" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>36528.32777777778</v>
+        <v>36528.33143518519</v>
       </c>
       <c r="E240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F240" t="b">
         <v>1</v>
@@ -5663,20 +5663,20 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>481_40</t>
+          <t>484_60</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C241" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>36528.33125</v>
+        <v>36528.33143518519</v>
       </c>
       <c r="E241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F241" t="b">
         <v>1</v>
@@ -5685,20 +5685,20 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>484_50</t>
+          <t>482_50</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>50</v>
       </c>
       <c r="C242" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>36528.33125</v>
+        <v>36528.26344907407</v>
       </c>
       <c r="E242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F242" t="b">
         <v>1</v>
@@ -5707,20 +5707,20 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>484_60</t>
+          <t>482_50</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C243" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>36528.33125</v>
+        <v>36528.40025462963</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F243" t="b">
         <v>1</v>
@@ -5729,20 +5729,20 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>487_40</t>
+          <t>482_60</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C244" t="n">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>36528.35347222222</v>
+        <v>36528.40025462963</v>
       </c>
       <c r="E244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F244" t="b">
         <v>1</v>
@@ -5751,20 +5751,20 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>468_50</t>
+          <t>475_30</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C245" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>36528.35347222222</v>
+        <v>36528.26344907407</v>
       </c>
       <c r="E245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F245" t="b">
         <v>1</v>
@@ -5773,17 +5773,17 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>485_70</t>
+          <t>475_30</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C246" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>36528.35347222222</v>
+        <v>36528.31344907408</v>
       </c>
       <c r="E246" t="n">
         <v>3</v>
@@ -5795,20 +5795,20 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>473_50</t>
+          <t>475_40</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C247" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>36528.35486111111</v>
+        <v>36528.31344907408</v>
       </c>
       <c r="E247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F247" t="b">
         <v>1</v>
@@ -5817,17 +5817,17 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>479_60</t>
+          <t>477_50</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C248" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>36528.35486111111</v>
+        <v>36528.27210648148</v>
       </c>
       <c r="E248" t="n">
         <v>2</v>
@@ -5839,17 +5839,17 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>482_50</t>
+          <t>477_50</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>50</v>
       </c>
       <c r="C249" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>36528.4</v>
+        <v>36528.31168981481</v>
       </c>
       <c r="E249" t="n">
         <v>3</v>
@@ -5861,20 +5861,20 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>482_60</t>
+          <t>473_50</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C250" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>36528.4</v>
+        <v>36528.31168981481</v>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F250" t="b">
         <v>1</v>
@@ -5883,17 +5883,17 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>486_20</t>
+          <t>473_50</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C251" t="n">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>36528.42916666667</v>
+        <v>36528.35543981481</v>
       </c>
       <c r="E251" t="n">
         <v>3</v>
@@ -5905,20 +5905,20 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>486_30</t>
+          <t>468_50</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C252" t="n">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>36528.42916666667</v>
+        <v>36528.31344907408</v>
       </c>
       <c r="E252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F252" t="b">
         <v>1</v>
@@ -5927,20 +5927,20 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>469_40</t>
+          <t>468_50</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C253" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>36528.42916666667</v>
+        <v>36528.35372685185</v>
       </c>
       <c r="E253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F253" t="b">
         <v>1</v>
@@ -5949,20 +5949,20 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>487_40</t>
+          <t>485_70</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C254" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>36528.44513888889</v>
+        <v>36528.32796296296</v>
       </c>
       <c r="E254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F254" t="b">
         <v>1</v>
@@ -5971,20 +5971,20 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>482_60</t>
+          <t>485_70</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C255" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>36528.44513888889</v>
+        <v>36528.35365740741</v>
       </c>
       <c r="E255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F255" t="b">
         <v>1</v>
@@ -5993,20 +5993,20 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>474_20</t>
+          <t>481_40</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C256" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>36528.45208333333</v>
+        <v>36528.33143518519</v>
       </c>
       <c r="E256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F256" t="b">
         <v>1</v>
@@ -6015,20 +6015,20 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>474_30</t>
+          <t>481_40</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C257" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>36528.45208333333</v>
+        <v>36528.49532407407</v>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F257" t="b">
         <v>1</v>
@@ -6037,20 +6037,20 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>476_40</t>
+          <t>481_50</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C258" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>36528.45208333333</v>
+        <v>36528.49532407407</v>
       </c>
       <c r="E258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F258" t="b">
         <v>1</v>
@@ -6059,20 +6059,20 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>472_30</t>
+          <t>487_40</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C259" t="n">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>36528.45972222222</v>
+        <v>36528.35372685185</v>
       </c>
       <c r="E259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F259" t="b">
         <v>1</v>
@@ -6081,20 +6081,20 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>472_40</t>
+          <t>487_40</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>40</v>
       </c>
       <c r="C260" t="n">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="D260" s="2" t="n">
-        <v>36528.45972222222</v>
+        <v>36528.44539351852</v>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F260" t="b">
         <v>1</v>
@@ -6103,17 +6103,17 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>475_40</t>
+          <t>479_60</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C261" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>36528.45972222222</v>
+        <v>36528.35543981481</v>
       </c>
       <c r="E261" t="n">
         <v>2</v>
@@ -6125,17 +6125,17 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>469_40</t>
+          <t>479_60</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C262" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>36528.48194444444</v>
+        <v>36528.52141203704</v>
       </c>
       <c r="E262" t="n">
         <v>3</v>
@@ -6147,20 +6147,20 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>469_50</t>
+          <t>469_40</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C263" t="n">
         <v>469</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>36528.48194444444</v>
+        <v>36528.42930555555</v>
       </c>
       <c r="E263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F263" t="b">
         <v>1</v>
@@ -6169,20 +6169,20 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>469_50</t>
+          <t>469_40</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C264" t="n">
         <v>469</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>36528.48194444444</v>
+        <v>36528.48208333334</v>
       </c>
       <c r="E264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F264" t="b">
         <v>1</v>
@@ -6191,20 +6191,20 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>484_60</t>
+          <t>469_50</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C265" t="n">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>36528.48194444444</v>
+        <v>36528.48208333334</v>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F265" t="b">
         <v>1</v>
@@ -6213,20 +6213,20 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>483_30</t>
+          <t>482_60</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C266" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>36528.48680555556</v>
+        <v>36528.44539351852</v>
       </c>
       <c r="E266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F266" t="b">
         <v>1</v>
@@ -6235,20 +6235,20 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>483_40</t>
+          <t>482_60</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C267" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>36528.48680555556</v>
+        <v>36528.56136574074</v>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F267" t="b">
         <v>1</v>
@@ -6257,17 +6257,17 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>483_40</t>
+          <t>476_40</t>
         </is>
       </c>
       <c r="B268" t="n">
         <v>40</v>
       </c>
       <c r="C268" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>36528.48680555556</v>
+        <v>36528.4525</v>
       </c>
       <c r="E268" t="n">
         <v>2</v>
@@ -6279,17 +6279,17 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>481_40</t>
+          <t>476_40</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>40</v>
       </c>
       <c r="C269" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>36528.49513888889</v>
+        <v>36528.51569444445</v>
       </c>
       <c r="E269" t="n">
         <v>3</v>
@@ -6301,17 +6301,17 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>481_50</t>
+          <t>476_50</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>50</v>
       </c>
       <c r="C270" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>36528.49513888889</v>
+        <v>36528.51569444445</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
@@ -6323,20 +6323,20 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>484_60</t>
+          <t>475_40</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C271" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>36528.50763888889</v>
+        <v>36528.45986111111</v>
       </c>
       <c r="E271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F271" t="b">
         <v>1</v>
@@ -6345,20 +6345,20 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>484_70</t>
+          <t>475_40</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C272" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>36528.50763888889</v>
+        <v>36528.58625</v>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F272" t="b">
         <v>1</v>
@@ -6367,20 +6367,20 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>476_40</t>
+          <t>475_50</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C273" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>36528.51527777778</v>
+        <v>36528.58625</v>
       </c>
       <c r="E273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F273" t="b">
         <v>1</v>
@@ -6389,17 +6389,17 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>471_40</t>
+          <t>484_60</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C274" t="n">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>36528.51527777778</v>
+        <v>36528.48208333334</v>
       </c>
       <c r="E274" t="n">
         <v>2</v>
@@ -6411,20 +6411,20 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>476_50</t>
+          <t>484_60</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C275" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>36528.51527777778</v>
+        <v>36528.50777777778</v>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F275" t="b">
         <v>1</v>
@@ -6433,20 +6433,20 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>476_50</t>
+          <t>484_70</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C276" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>36528.51527777778</v>
+        <v>36528.50777777778</v>
       </c>
       <c r="E276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F276" t="b">
         <v>1</v>
@@ -6455,17 +6455,17 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>480_50</t>
+          <t>469_50</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>50</v>
       </c>
       <c r="C277" t="n">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>36528.52083333334</v>
+        <v>36528.48208333334</v>
       </c>
       <c r="E277" t="n">
         <v>2</v>
@@ -6477,17 +6477,17 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>479_60</t>
+          <t>469_50</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C278" t="n">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>36528.52083333334</v>
+        <v>36528.58694444445</v>
       </c>
       <c r="E278" t="n">
         <v>3</v>
@@ -6499,20 +6499,20 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>474_30</t>
+          <t>469_60</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C279" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>36528.56111111111</v>
+        <v>36528.58694444445</v>
       </c>
       <c r="E279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F279" t="b">
         <v>1</v>
@@ -6521,20 +6521,20 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>482_60</t>
+          <t>483_40</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C280" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>36528.56111111111</v>
+        <v>36528.48738425926</v>
       </c>
       <c r="E280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F280" t="b">
         <v>1</v>
@@ -6543,17 +6543,17 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>475_40</t>
+          <t>483_40</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>40</v>
       </c>
       <c r="C281" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>36528.58611111111</v>
+        <v>36528.72974537037</v>
       </c>
       <c r="E281" t="n">
         <v>3</v>
@@ -6565,17 +6565,17 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>475_50</t>
+          <t>483_50</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>50</v>
       </c>
       <c r="C282" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>36528.58611111111</v>
+        <v>36528.72974537037</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -6587,17 +6587,17 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>475_50</t>
+          <t>471_40</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C283" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>36528.58611111111</v>
+        <v>36528.51569444445</v>
       </c>
       <c r="E283" t="n">
         <v>2</v>
@@ -6609,20 +6609,20 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>484_70</t>
+          <t>471_40</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C284" t="n">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>36528.58611111111</v>
+        <v>36528.63513888889</v>
       </c>
       <c r="E284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F284" t="b">
         <v>1</v>
@@ -6631,20 +6631,20 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>469_50</t>
+          <t>476_50</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>36528.58680555555</v>
+        <v>36528.51569444445</v>
       </c>
       <c r="E285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F285" t="b">
         <v>1</v>
@@ -6653,20 +6653,20 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>469_60</t>
+          <t>476_50</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C286" t="n">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>36528.58680555555</v>
+        <v>36528.64</v>
       </c>
       <c r="E286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F286" t="b">
         <v>1</v>
@@ -6675,20 +6675,20 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>469_60</t>
+          <t>476_60</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>60</v>
       </c>
       <c r="C287" t="n">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>36528.58680555555</v>
+        <v>36528.64</v>
       </c>
       <c r="E287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F287" t="b">
         <v>1</v>
@@ -6697,20 +6697,20 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>471_40</t>
+          <t>480_50</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C288" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>36528.63472222222</v>
+        <v>36528.52141203704</v>
       </c>
       <c r="E288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F288" t="b">
         <v>1</v>
@@ -6719,20 +6719,20 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>481_50</t>
+          <t>480_50</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>50</v>
       </c>
       <c r="C289" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>36528.63472222222</v>
+        <v>36528.73043981481</v>
       </c>
       <c r="E289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F289" t="b">
         <v>1</v>
@@ -6741,20 +6741,20 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>476_50</t>
+          <t>480_60</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C290" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D290" s="2" t="n">
-        <v>36528.63958333333</v>
+        <v>36528.73043981481</v>
       </c>
       <c r="E290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F290" t="b">
         <v>1</v>
@@ -6763,20 +6763,20 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>476_60</t>
+          <t>474_30</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C291" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>36528.63958333333</v>
+        <v>36528.56136574074</v>
       </c>
       <c r="E291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F291" t="b">
         <v>1</v>
@@ -6785,20 +6785,20 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>476_60</t>
+          <t>474_30</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C292" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>36528.63958333333</v>
+        <v>36528.77178240741</v>
       </c>
       <c r="E292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F292" t="b">
         <v>1</v>
@@ -6807,20 +6807,20 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>484_70</t>
+          <t>474_40</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C293" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>36528.65833333333</v>
+        <v>36528.77178240741</v>
       </c>
       <c r="E293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F293" t="b">
         <v>1</v>
@@ -6829,20 +6829,20 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>469_60</t>
+          <t>475_50</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C294" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>36528.67222222222</v>
+        <v>36528.58625</v>
       </c>
       <c r="E294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F294" t="b">
         <v>1</v>
@@ -6851,20 +6851,20 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>469_70</t>
+          <t>475_50</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C295" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>36528.67222222222</v>
+        <v>36528.68902777778</v>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F295" t="b">
         <v>1</v>
@@ -6873,20 +6873,20 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>475_50</t>
+          <t>475_60</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C296" t="n">
         <v>475</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>36528.68888888889</v>
+        <v>36528.68902777778</v>
       </c>
       <c r="E296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F296" t="b">
         <v>1</v>
@@ -6895,20 +6895,20 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>475_60</t>
+          <t>484_70</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C297" t="n">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>36528.68888888889</v>
+        <v>36528.58625</v>
       </c>
       <c r="E297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F297" t="b">
         <v>1</v>
@@ -6917,17 +6917,17 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>476_60</t>
+          <t>484_70</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C298" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>36528.71875</v>
+        <v>36528.65847222223</v>
       </c>
       <c r="E298" t="n">
         <v>3</v>
@@ -6939,20 +6939,20 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>476_70</t>
+          <t>469_60</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C299" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>36528.71875</v>
+        <v>36528.58694444445</v>
       </c>
       <c r="E299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F299" t="b">
         <v>1</v>
@@ -6961,20 +6961,20 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>476_70</t>
+          <t>469_60</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C300" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>36528.71875</v>
+        <v>36528.67236111111</v>
       </c>
       <c r="E300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F300" t="b">
         <v>1</v>
@@ -6983,20 +6983,20 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>481_50</t>
+          <t>469_70</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C301" t="n">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>36528.72847222222</v>
+        <v>36528.67236111111</v>
       </c>
       <c r="E301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F301" t="b">
         <v>1</v>
@@ -7005,20 +7005,20 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>481_60</t>
+          <t>481_50</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C302" t="n">
         <v>481</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>36528.72847222222</v>
+        <v>36528.63513888889</v>
       </c>
       <c r="E302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F302" t="b">
         <v>1</v>
@@ -7027,20 +7027,20 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>481_60</t>
+          <t>481_50</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C303" t="n">
         <v>481</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>36528.72847222222</v>
+        <v>36528.72888888889</v>
       </c>
       <c r="E303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F303" t="b">
         <v>1</v>
@@ -7049,20 +7049,20 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>469_70</t>
+          <t>481_60</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C304" t="n">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>36528.72847222222</v>
+        <v>36528.72888888889</v>
       </c>
       <c r="E304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F304" t="b">
         <v>1</v>
@@ -7071,20 +7071,20 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>483_40</t>
+          <t>476_60</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C305" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>36528.72916666666</v>
+        <v>36528.64</v>
       </c>
       <c r="E305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F305" t="b">
         <v>1</v>
@@ -7093,20 +7093,20 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>483_50</t>
+          <t>476_60</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C306" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>36528.72916666666</v>
+        <v>36528.71916666667</v>
       </c>
       <c r="E306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F306" t="b">
         <v>1</v>
@@ -7115,20 +7115,20 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>483_50</t>
+          <t>476_70</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C307" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>36528.72916666666</v>
+        <v>36528.71916666667</v>
       </c>
       <c r="E307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F307" t="b">
         <v>1</v>
@@ -7137,17 +7137,17 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>486_30</t>
+          <t>476_70</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C308" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>36528.72986111111</v>
+        <v>36528.71916666667</v>
       </c>
       <c r="E308" t="n">
         <v>2</v>
@@ -7159,17 +7159,17 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>480_50</t>
+          <t>476_70</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C309" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>36528.72986111111</v>
+        <v>36528.83305555556</v>
       </c>
       <c r="E309" t="n">
         <v>3</v>
@@ -7181,20 +7181,20 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>480_60</t>
+          <t>469_70</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C310" t="n">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>36528.72986111111</v>
+        <v>36528.72888888889</v>
       </c>
       <c r="E310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F310" t="b">
         <v>1</v>
@@ -7203,20 +7203,20 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>480_60</t>
+          <t>469_70</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C311" t="n">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>36528.72986111111</v>
+        <v>36528.81916666667</v>
       </c>
       <c r="E311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F311" t="b">
         <v>1</v>
@@ -7225,20 +7225,20 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>474_30</t>
+          <t>481_60</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C312" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>36528.77152777778</v>
+        <v>36528.72888888889</v>
       </c>
       <c r="E312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F312" t="b">
         <v>1</v>
@@ -7247,20 +7247,20 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>474_40</t>
+          <t>481_60</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C313" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>36528.77152777778</v>
+        <v>36528.81916666667</v>
       </c>
       <c r="E313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F313" t="b">
         <v>1</v>
@@ -7269,20 +7269,20 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>474_40</t>
+          <t>481_70</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C314" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>36528.77152777778</v>
+        <v>36528.81916666667</v>
       </c>
       <c r="E314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F314" t="b">
         <v>1</v>
@@ -7291,20 +7291,20 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>481_60</t>
+          <t>483_50</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C315" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D315" s="2" t="n">
-        <v>36528.81875</v>
+        <v>36528.72974537037</v>
       </c>
       <c r="E315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F315" t="b">
         <v>1</v>
@@ -7313,17 +7313,17 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>469_70</t>
+          <t>483_50</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C316" t="n">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D316" s="2" t="n">
-        <v>36528.81875</v>
+        <v>36529.00613425926</v>
       </c>
       <c r="E316" t="n">
         <v>3</v>
@@ -7335,17 +7335,17 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>481_70</t>
+          <t>483_60</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C317" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>36528.81875</v>
+        <v>36529.00613425926</v>
       </c>
       <c r="E317" t="n">
         <v>1</v>
@@ -7357,20 +7357,20 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>476_70</t>
+          <t>486_30</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C318" t="n">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>36528.83263888889</v>
+        <v>36528.73043981481</v>
       </c>
       <c r="E318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F318" t="b">
         <v>1</v>
@@ -7379,17 +7379,17 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>480_60</t>
+          <t>486_30</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C319" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>36528.85833333333</v>
+        <v>36528.97835648148</v>
       </c>
       <c r="E319" t="n">
         <v>3</v>
@@ -7401,20 +7401,20 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>474_40</t>
+          <t>486_40</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>40</v>
       </c>
       <c r="C320" t="n">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>36528.92569444444</v>
+        <v>36528.97835648148</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F320" t="b">
         <v>1</v>
@@ -7423,20 +7423,20 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>474_50</t>
+          <t>480_60</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C321" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>36528.92569444444</v>
+        <v>36528.73043981481</v>
       </c>
       <c r="E321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F321" t="b">
         <v>1</v>
@@ -7445,20 +7445,20 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>474_50</t>
+          <t>480_60</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C322" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D322" s="2" t="n">
-        <v>36528.92569444444</v>
+        <v>36528.85891203704</v>
       </c>
       <c r="E322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F322" t="b">
         <v>1</v>
@@ -7467,20 +7467,20 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>486_30</t>
+          <t>474_40</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C323" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>36528.97777777778</v>
+        <v>36528.77178240741</v>
       </c>
       <c r="E323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F323" t="b">
         <v>1</v>
@@ -7489,20 +7489,20 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>486_40</t>
+          <t>474_40</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>40</v>
       </c>
       <c r="C324" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>36528.97777777778</v>
+        <v>36528.92594907407</v>
       </c>
       <c r="E324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F324" t="b">
         <v>1</v>
@@ -7511,20 +7511,20 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>472_40</t>
+          <t>474_50</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C325" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>36528.97777777778</v>
+        <v>36528.92594907407</v>
       </c>
       <c r="E325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F325" t="b">
         <v>1</v>
@@ -7533,17 +7533,17 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>486_40</t>
+          <t>474_50</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C326" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D326" s="2" t="n">
-        <v>36529.00069444445</v>
+        <v>36528.92594907407</v>
       </c>
       <c r="E326" t="n">
         <v>2</v>
@@ -7565,7 +7565,7 @@
         <v>474</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>36529.00069444445</v>
+        <v>36529.00094907408</v>
       </c>
       <c r="E327" t="n">
         <v>3</v>
@@ -7577,20 +7577,20 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>483_50</t>
+          <t>472_40</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C328" t="n">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>36529.00555555556</v>
+        <v>36528.97835648148</v>
       </c>
       <c r="E328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F328" t="b">
         <v>1</v>
@@ -7599,20 +7599,20 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>483_60</t>
+          <t>472_40</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C329" t="n">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>36529.00555555556</v>
+        <v>36529.04641203704</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F329" t="b">
         <v>1</v>
@@ -7621,17 +7621,17 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>483_60</t>
+          <t>486_40</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C330" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>36529.00555555556</v>
+        <v>36529.00094907408</v>
       </c>
       <c r="E330" t="n">
         <v>2</v>
@@ -7643,20 +7643,20 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>481_70</t>
+          <t>486_40</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C331" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>36529.00555555556</v>
+        <v>36529.25025462963</v>
       </c>
       <c r="E331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F331" t="b">
         <v>1</v>
@@ -7665,20 +7665,20 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>472_40</t>
+          <t>486_50</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C332" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D332" s="2" t="n">
-        <v>36529.04583333333</v>
+        <v>36529.25025462963</v>
       </c>
       <c r="E332" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F332" t="b">
         <v>1</v>
@@ -7687,17 +7687,17 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>475_60</t>
+          <t>481_70</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C333" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>36529.04583333333</v>
+        <v>36529.00613425926</v>
       </c>
       <c r="E333" t="n">
         <v>2</v>
@@ -7709,17 +7709,17 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>483_60</t>
+          <t>481_70</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C334" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>36529.09861111111</v>
+        <v>36529.12974537037</v>
       </c>
       <c r="E334" t="n">
         <v>3</v>
@@ -7731,20 +7731,20 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>483_70</t>
+          <t>483_60</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C335" t="n">
         <v>483</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>36529.09861111111</v>
+        <v>36529.00613425926</v>
       </c>
       <c r="E335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F335" t="b">
         <v>1</v>
@@ -7753,20 +7753,20 @@
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>483_70</t>
+          <t>483_60</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C336" t="n">
         <v>483</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>36529.09861111111</v>
+        <v>36529.09918981481</v>
       </c>
       <c r="E336" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F336" t="b">
         <v>1</v>
@@ -7775,20 +7775,20 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>481_70</t>
+          <t>483_70</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>70</v>
       </c>
       <c r="C337" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>36529.12916666667</v>
+        <v>36529.09918981481</v>
       </c>
       <c r="E337" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F337" t="b">
         <v>1</v>
@@ -7807,10 +7807,10 @@
         <v>475</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>36529.13194444445</v>
+        <v>36529.04641203704</v>
       </c>
       <c r="E338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F338" t="b">
         <v>1</v>
@@ -7819,17 +7819,17 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>483_70</t>
+          <t>475_60</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C339" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>36529.23333333333</v>
+        <v>36529.13252314815</v>
       </c>
       <c r="E339" t="n">
         <v>3</v>
@@ -7841,20 +7841,20 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>486_40</t>
+          <t>483_70</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C340" t="n">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>36529.25</v>
+        <v>36529.09918981481</v>
       </c>
       <c r="E340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F340" t="b">
         <v>1</v>
@@ -7863,20 +7863,20 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>486_50</t>
+          <t>483_70</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C341" t="n">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>36529.25</v>
+        <v>36529.23391203704</v>
       </c>
       <c r="E341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F341" t="b">
         <v>1</v>
@@ -7895,7 +7895,7 @@
         <v>486</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>36529.25</v>
+        <v>36529.25025462963</v>
       </c>
       <c r="E342" t="n">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>486</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>36529.41319444445</v>
+        <v>36529.41344907408</v>
       </c>
       <c r="E343" t="n">
         <v>3</v>
@@ -7939,7 +7939,7 @@
         <v>486</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>36529.41319444445</v>
+        <v>36529.41344907408</v>
       </c>
       <c r="E344" t="n">
         <v>1</v>
@@ -7961,7 +7961,7 @@
         <v>486</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>36529.41319444445</v>
+        <v>36529.41344907408</v>
       </c>
       <c r="E345" t="n">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>486</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>36529.66319444445</v>
+        <v>36529.66344907408</v>
       </c>
       <c r="E346" t="n">
         <v>3</v>

--- a/client/outputNN.xlsx
+++ b/client/outputNN.xlsx
@@ -877,7 +877,7 @@
         <v>471</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>36527.42056712963</v>
+        <v>36527.42068287037</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -899,7 +899,7 @@
         <v>471</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>36527.42056712963</v>
+        <v>36527.42068287037</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>470</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>36527.40003472222</v>
+        <v>36527.40024305556</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -965,7 +965,7 @@
         <v>470</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>36527.40003472222</v>
+        <v>36527.40024305556</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>473</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>36527.50752314815</v>
+        <v>36527.50796296296</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -1031,7 +1031,7 @@
         <v>473</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>36527.50752314815</v>
+        <v>36527.50796296296</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1075,7 +1075,7 @@
         <v>477</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>36527.44408564815</v>
+        <v>36527.44458333333</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -1097,7 +1097,7 @@
         <v>477</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>36527.44408564815</v>
+        <v>36527.44458333333</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>479</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>36527.56407407407</v>
+        <v>36527.56471064815</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -1163,7 +1163,7 @@
         <v>479</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>36527.56407407407</v>
+        <v>36527.56471064815</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>470</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>36527.40003472222</v>
+        <v>36527.40024305556</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         <v>470</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>36527.44517361111</v>
+        <v>36527.44587962963</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -1229,7 +1229,7 @@
         <v>470</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>36527.44517361111</v>
+        <v>36527.44587962963</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>469</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>36527.49956018518</v>
+        <v>36527.49969907408</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -1295,7 +1295,7 @@
         <v>469</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>36527.49956018518</v>
+        <v>36527.49969907408</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>477</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>36527.44408564815</v>
+        <v>36527.44458333333</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -1339,7 +1339,7 @@
         <v>477</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>36527.49964120371</v>
+        <v>36527.5003125</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
@@ -1361,7 +1361,7 @@
         <v>477</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>36527.49964120371</v>
+        <v>36527.5003125</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>470</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>36527.44517361111</v>
+        <v>36527.44587962963</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>470</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>36527.4903125</v>
+        <v>36527.49115740741</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -1427,7 +1427,7 @@
         <v>470</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>36527.4903125</v>
+        <v>36527.49115740741</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>468</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>36527.60986111111</v>
+        <v>36527.60994212963</v>
       </c>
       <c r="E50" t="n">
         <v>3</v>
@@ -1493,7 +1493,7 @@
         <v>468</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>36527.60986111111</v>
+        <v>36527.60994212963</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>470</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>36527.4903125</v>
+        <v>36527.49115740741</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -1537,7 +1537,7 @@
         <v>470</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>36527.54170138889</v>
+        <v>36527.54274305556</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
@@ -1559,7 +1559,7 @@
         <v>470</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>36527.54170138889</v>
+        <v>36527.54274305556</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>481</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>36527.5880787037</v>
+        <v>36527.58833333333</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -1625,7 +1625,7 @@
         <v>481</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>36527.5880787037</v>
+        <v>36527.58833333333</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>484</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>36527.49956018518</v>
+        <v>36527.49969907408</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
@@ -1669,7 +1669,7 @@
         <v>484</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>36527.54261574074</v>
+        <v>36527.54318287037</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -1691,7 +1691,7 @@
         <v>484</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>36527.54261574074</v>
+        <v>36527.54318287037</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>477</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>36527.49964120371</v>
+        <v>36527.5003125</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
@@ -1735,7 +1735,7 @@
         <v>477</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>36527.56283564815</v>
+        <v>36527.56415509259</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -1757,7 +1757,7 @@
         <v>477</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>36527.56283564815</v>
+        <v>36527.56415509259</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>476</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>36527.50752314815</v>
+        <v>36527.50796296296</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -1801,7 +1801,7 @@
         <v>476</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>36527.57210648148</v>
+        <v>36527.57296296296</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
@@ -1823,7 +1823,7 @@
         <v>476</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>36527.57210648148</v>
+        <v>36527.57296296296</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>473</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>36527.50752314815</v>
+        <v>36527.50796296296</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -1867,7 +1867,7 @@
         <v>473</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>36527.66724537037</v>
+        <v>36527.6682175926</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
@@ -1889,7 +1889,7 @@
         <v>473</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>36527.66724537037</v>
+        <v>36527.6682175926</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>472</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>36527.70388888889</v>
+        <v>36527.70394675926</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>472</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>36527.70388888889</v>
+        <v>36527.70394675926</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>483</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>36527.54261574074</v>
+        <v>36527.54318287037</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -1999,7 +1999,7 @@
         <v>483</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>36527.7780324074</v>
+        <v>36527.77878472222</v>
       </c>
       <c r="E74" t="n">
         <v>3</v>
@@ -2021,7 +2021,7 @@
         <v>483</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>36527.7780324074</v>
+        <v>36527.77878472222</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -2033,17 +2033,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>484_20</t>
+          <t>482_10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>36527.56283564815</v>
+        <v>36527.56313657408</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -2055,17 +2055,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>484_20</t>
+          <t>482_10</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>36527.60936342592</v>
+        <v>36527.67248842592</v>
       </c>
       <c r="E77" t="n">
         <v>3</v>
@@ -2077,17 +2077,17 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>484_30</t>
+          <t>482_20</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C78" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>36527.60936342592</v>
+        <v>36527.67248842592</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -2099,17 +2099,17 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>482_10</t>
+          <t>484_20</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>36527.56313657408</v>
+        <v>36527.56415509259</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -2121,17 +2121,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>482_10</t>
+          <t>484_20</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>36527.67216435185</v>
+        <v>36527.61104166666</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -2143,17 +2143,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>482_20</t>
+          <t>484_30</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>36527.67216435185</v>
+        <v>36527.61104166666</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>471</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>36527.56407407407</v>
+        <v>36527.56471064815</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -2197,7 +2197,7 @@
         <v>471</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>36527.70921296296</v>
+        <v>36527.71052083333</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
@@ -2219,7 +2219,7 @@
         <v>471</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>36527.70921296296</v>
+        <v>36527.71052083333</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -2241,7 +2241,7 @@
         <v>480</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>36527.57210648148</v>
+        <v>36527.57296296296</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -2263,7 +2263,7 @@
         <v>480</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>36527.69571759259</v>
+        <v>36527.69681712963</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
@@ -2285,7 +2285,7 @@
         <v>480</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>36527.69571759259</v>
+        <v>36527.69681712963</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>479</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>36527.5880787037</v>
+        <v>36527.58833333333</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -2329,7 +2329,7 @@
         <v>479</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>36527.6880787037</v>
+        <v>36527.68871527778</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
@@ -2351,7 +2351,7 @@
         <v>479</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>36527.6880787037</v>
+        <v>36527.68871527778</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>485</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>36527.60986111111</v>
+        <v>36527.60994212963</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -2395,7 +2395,7 @@
         <v>485</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>36527.67236111111</v>
+        <v>36527.67293981482</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -2417,7 +2417,7 @@
         <v>485</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>36527.67236111111</v>
+        <v>36527.67293981482</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>476</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>36527.66724537037</v>
+        <v>36527.6682175926</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -2461,7 +2461,7 @@
         <v>476</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>36527.72280092593</v>
+        <v>36527.72407407407</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -2483,7 +2483,7 @@
         <v>476</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>36527.72280092593</v>
+        <v>36527.72407407407</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -2505,7 +2505,7 @@
         <v>469</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>36527.67236111111</v>
+        <v>36527.67293981482</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>469</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>36527.78416666666</v>
+        <v>36527.78498842593</v>
       </c>
       <c r="E98" t="n">
         <v>3</v>
@@ -2549,7 +2549,7 @@
         <v>469</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>36527.78416666666</v>
+        <v>36527.78498842593</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>468</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>36527.6880787037</v>
+        <v>36527.68871527778</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -2593,7 +2593,7 @@
         <v>468</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>36527.74780092593</v>
+        <v>36527.74846064814</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -2615,7 +2615,7 @@
         <v>468</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>36527.74780092593</v>
+        <v>36527.74846064814</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>480</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>36527.69571759259</v>
+        <v>36527.69681712963</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -2659,7 +2659,7 @@
         <v>480</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>36527.83530092592</v>
+        <v>36527.83697916667</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -2681,7 +2681,7 @@
         <v>480</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>36527.83530092592</v>
+        <v>36527.83697916667</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>474</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>36527.69571759259</v>
+        <v>36527.69681712963</v>
       </c>
       <c r="E106" t="n">
         <v>2</v>
@@ -2725,7 +2725,7 @@
         <v>474</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>36527.78738425926</v>
+        <v>36527.78909722222</v>
       </c>
       <c r="E107" t="n">
         <v>3</v>
@@ -2747,7 +2747,7 @@
         <v>474</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>36527.78738425926</v>
+        <v>36527.78909722222</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>477</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>36527.70388888889</v>
+        <v>36527.70394675926</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
@@ -2791,7 +2791,7 @@
         <v>477</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>36527.7525</v>
+        <v>36527.75273148148</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
@@ -2813,7 +2813,7 @@
         <v>477</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>36527.7525</v>
+        <v>36527.75273148148</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>487</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>36527.70921296296</v>
+        <v>36527.71052083333</v>
       </c>
       <c r="E112" t="n">
         <v>2</v>
@@ -2857,7 +2857,7 @@
         <v>487</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>36527.77726851852</v>
+        <v>36527.77864583334</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
@@ -2879,7 +2879,7 @@
         <v>487</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>36527.77726851852</v>
+        <v>36527.77864583334</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>482</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>36527.72280092593</v>
+        <v>36527.72407407407</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -2923,7 +2923,7 @@
         <v>482</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>36527.86168981482</v>
+        <v>36527.86305555556</v>
       </c>
       <c r="E116" t="n">
         <v>3</v>
@@ -2945,7 +2945,7 @@
         <v>482</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>36527.86168981482</v>
+        <v>36527.86305555556</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -2967,7 +2967,7 @@
         <v>476</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>36527.72280092593</v>
+        <v>36527.72407407407</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -2989,7 +2989,7 @@
         <v>476</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>36527.81516203703</v>
+        <v>36527.81657407407</v>
       </c>
       <c r="E119" t="n">
         <v>3</v>
@@ -3011,7 +3011,7 @@
         <v>476</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>36527.81516203703</v>
+        <v>36527.81657407407</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>475</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>36527.7525</v>
+        <v>36527.75273148148</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
@@ -3055,7 +3055,7 @@
         <v>475</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>36527.86916666666</v>
+        <v>36527.87006944444</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -3077,7 +3077,7 @@
         <v>475</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>36527.86916666666</v>
+        <v>36527.87006944444</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>486</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>36527.77726851852</v>
+        <v>36527.77864583334</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -3121,7 +3121,7 @@
         <v>486</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>36528.0925462963</v>
+        <v>36528.09439814815</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
@@ -3143,7 +3143,7 @@
         <v>486</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>36528.0925462963</v>
+        <v>36528.09439814815</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -3165,7 +3165,7 @@
         <v>485</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>36527.7780324074</v>
+        <v>36527.77878472222</v>
       </c>
       <c r="E127" t="n">
         <v>2</v>
@@ -3187,7 +3187,7 @@
         <v>485</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>36527.8717824074</v>
+        <v>36527.8728125</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
@@ -3209,7 +3209,7 @@
         <v>485</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>36527.8717824074</v>
+        <v>36527.8728125</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>470</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>36527.78416666666</v>
+        <v>36527.78498842593</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -3253,7 +3253,7 @@
         <v>470</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>36527.82097222222</v>
+        <v>36527.82225694445</v>
       </c>
       <c r="E131" t="n">
         <v>3</v>
@@ -3275,7 +3275,7 @@
         <v>478</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>36527.78738425926</v>
+        <v>36527.78909722222</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -3297,7 +3297,7 @@
         <v>478</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>36527.84502314815</v>
+        <v>36527.84721064815</v>
       </c>
       <c r="E133" t="n">
         <v>3</v>
@@ -3319,7 +3319,7 @@
         <v>478</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>36527.84502314815</v>
+        <v>36527.84721064815</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -3341,7 +3341,7 @@
         <v>484</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>36527.82097222222</v>
+        <v>36527.82225694445</v>
       </c>
       <c r="E135" t="n">
         <v>2</v>
@@ -3363,7 +3363,7 @@
         <v>484</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>36527.88625</v>
+        <v>36527.88777777777</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
@@ -3385,7 +3385,7 @@
         <v>484</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>36527.88625</v>
+        <v>36527.88777777777</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>480</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>36527.83530092592</v>
+        <v>36527.83697916667</v>
       </c>
       <c r="E138" t="n">
         <v>2</v>
@@ -3429,7 +3429,7 @@
         <v>480</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>36527.99780092593</v>
+        <v>36527.99967592592</v>
       </c>
       <c r="E139" t="n">
         <v>3</v>
@@ -3451,7 +3451,7 @@
         <v>480</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>36527.99780092593</v>
+        <v>36527.99967592592</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>473</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>36527.84502314815</v>
+        <v>36527.84721064815</v>
       </c>
       <c r="E141" t="n">
         <v>2</v>
@@ -3495,7 +3495,7 @@
         <v>473</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>36527.99710648148</v>
+        <v>36527.9997337963</v>
       </c>
       <c r="E142" t="n">
         <v>3</v>
@@ -3517,7 +3517,7 @@
         <v>473</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>36527.99710648148</v>
+        <v>36527.9997337963</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>479</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>36527.86916666666</v>
+        <v>36527.87006944444</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -3561,7 +3561,7 @@
         <v>479</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>36527.95597222223</v>
+        <v>36527.95703703703</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
@@ -3583,7 +3583,7 @@
         <v>479</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>36527.95597222223</v>
+        <v>36527.95703703703</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>468</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>36527.8717824074</v>
+        <v>36527.8728125</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -3627,7 +3627,7 @@
         <v>468</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>36528.00233796296</v>
+        <v>36528.00400462963</v>
       </c>
       <c r="E148" t="n">
         <v>3</v>
@@ -3649,7 +3649,7 @@
         <v>468</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>36528.00233796296</v>
+        <v>36528.00400462963</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -3671,7 +3671,7 @@
         <v>485</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>36527.8717824074</v>
+        <v>36527.8728125</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
@@ -3693,7 +3693,7 @@
         <v>485</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>36527.92525462963</v>
+        <v>36527.92640046297</v>
       </c>
       <c r="E151" t="n">
         <v>3</v>
@@ -3715,7 +3715,7 @@
         <v>485</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>36527.92525462963</v>
+        <v>36527.92640046297</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>478</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>36527.88625</v>
+        <v>36527.88777777777</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
@@ -3759,7 +3759,7 @@
         <v>478</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>36527.94805555556</v>
+        <v>36527.95010416667</v>
       </c>
       <c r="E154" t="n">
         <v>3</v>
@@ -3781,7 +3781,7 @@
         <v>478</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>36527.94805555556</v>
+        <v>36527.95010416667</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>478</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>36527.94805555556</v>
+        <v>36527.95010416667</v>
       </c>
       <c r="E156" t="n">
         <v>2</v>
@@ -3825,7 +3825,7 @@
         <v>478</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>36528.03694444444</v>
+        <v>36528.03921296296</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
@@ -3847,7 +3847,7 @@
         <v>478</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>36528.03694444444</v>
+        <v>36528.03921296296</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>485</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>36527.94805555556</v>
+        <v>36527.95010416667</v>
       </c>
       <c r="E159" t="n">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>485</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>36527.99805555555</v>
+        <v>36528.00060185185</v>
       </c>
       <c r="E160" t="n">
         <v>3</v>
@@ -3913,7 +3913,7 @@
         <v>485</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>36527.99805555555</v>
+        <v>36528.00060185185</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -3935,7 +3935,7 @@
         <v>483</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>36527.95597222223</v>
+        <v>36527.95703703703</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -3957,7 +3957,7 @@
         <v>483</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>36528.22472222222</v>
+        <v>36528.22615740741</v>
       </c>
       <c r="E163" t="n">
         <v>3</v>
@@ -3979,7 +3979,7 @@
         <v>483</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>36528.22472222222</v>
+        <v>36528.22615740741</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -3991,17 +3991,17 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>472_20</t>
+          <t>482_30</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C165" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>36527.99710648148</v>
+        <v>36527.99967592592</v>
       </c>
       <c r="E165" t="n">
         <v>2</v>
@@ -4013,17 +4013,17 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>472_20</t>
+          <t>482_30</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C166" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>36528.19432870371</v>
+        <v>36528.08840277778</v>
       </c>
       <c r="E166" t="n">
         <v>3</v>
@@ -4035,17 +4035,17 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>472_30</t>
+          <t>482_40</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C167" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>36528.19432870371</v>
+        <v>36528.08840277778</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -4057,17 +4057,17 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>473_40</t>
+          <t>472_20</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C168" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>36527.99710648148</v>
+        <v>36527.9997337963</v>
       </c>
       <c r="E168" t="n">
         <v>2</v>
@@ -4079,17 +4079,17 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>473_40</t>
+          <t>472_20</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C169" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>36528.14502314815</v>
+        <v>36528.19733796296</v>
       </c>
       <c r="E169" t="n">
         <v>3</v>
@@ -4101,17 +4101,17 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>473_50</t>
+          <t>472_30</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C170" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>36528.14502314815</v>
+        <v>36528.19733796296</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -4123,17 +4123,17 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>482_30</t>
+          <t>473_40</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C171" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>36527.99780092593</v>
+        <v>36527.9997337963</v>
       </c>
       <c r="E171" t="n">
         <v>2</v>
@@ -4145,17 +4145,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>482_30</t>
+          <t>473_40</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C172" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>36528.08599537037</v>
+        <v>36528.14805555555</v>
       </c>
       <c r="E172" t="n">
         <v>3</v>
@@ -4167,17 +4167,17 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>482_40</t>
+          <t>473_50</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C173" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>36528.08599537037</v>
+        <v>36528.14805555555</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -4199,7 +4199,7 @@
         <v>479</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>36527.99805555555</v>
+        <v>36528.00060185185</v>
       </c>
       <c r="E174" t="n">
         <v>2</v>
@@ -4221,7 +4221,7 @@
         <v>479</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>36528.09041666667</v>
+        <v>36528.093125</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
@@ -4243,7 +4243,7 @@
         <v>479</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>36528.09041666667</v>
+        <v>36528.093125</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -4265,7 +4265,7 @@
         <v>487</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>36528.00233796296</v>
+        <v>36528.00400462963</v>
       </c>
       <c r="E177" t="n">
         <v>2</v>
@@ -4287,7 +4287,7 @@
         <v>487</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>36528.08011574074</v>
+        <v>36528.08210648148</v>
       </c>
       <c r="E178" t="n">
         <v>3</v>
@@ -4309,7 +4309,7 @@
         <v>487</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>36528.08011574074</v>
+        <v>36528.08210648148</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4331,7 +4331,7 @@
         <v>478</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>36528.03694444444</v>
+        <v>36528.03921296296</v>
       </c>
       <c r="E180" t="n">
         <v>2</v>
@@ -4353,7 +4353,7 @@
         <v>478</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>36528.09944444444</v>
+        <v>36528.10231481482</v>
       </c>
       <c r="E181" t="n">
         <v>3</v>
@@ -4375,7 +4375,7 @@
         <v>478</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>36528.09944444444</v>
+        <v>36528.10231481482</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4397,7 +4397,7 @@
         <v>485</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>36528.08011574074</v>
+        <v>36528.08210648148</v>
       </c>
       <c r="E183" t="n">
         <v>2</v>
@@ -4419,7 +4419,7 @@
         <v>485</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>36528.14469907407</v>
+        <v>36528.14721064815</v>
       </c>
       <c r="E184" t="n">
         <v>3</v>
@@ -4441,7 +4441,7 @@
         <v>485</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>36528.14469907407</v>
+        <v>36528.14721064815</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>475</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>36528.08599537037</v>
+        <v>36528.08840277778</v>
       </c>
       <c r="E186" t="n">
         <v>2</v>
@@ -4485,7 +4485,7 @@
         <v>475</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>36528.17349537037</v>
+        <v>36528.1759837963</v>
       </c>
       <c r="E187" t="n">
         <v>3</v>
@@ -4507,7 +4507,7 @@
         <v>475</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>36528.17349537037</v>
+        <v>36528.1759837963</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -4529,7 +4529,7 @@
         <v>479</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>36528.09041666667</v>
+        <v>36528.093125</v>
       </c>
       <c r="E189" t="n">
         <v>2</v>
@@ -4551,7 +4551,7 @@
         <v>479</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>36528.17027777778</v>
+        <v>36528.17326388889</v>
       </c>
       <c r="E190" t="n">
         <v>3</v>
@@ -4573,7 +4573,7 @@
         <v>479</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>36528.17027777778</v>
+        <v>36528.17326388889</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -4595,7 +4595,7 @@
         <v>480</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>36528.09041666667</v>
+        <v>36528.093125</v>
       </c>
       <c r="E192" t="n">
         <v>2</v>
@@ -4617,7 +4617,7 @@
         <v>480</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>36528.255</v>
+        <v>36528.25795138889</v>
       </c>
       <c r="E193" t="n">
         <v>3</v>
@@ -4639,7 +4639,7 @@
         <v>480</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>36528.255</v>
+        <v>36528.25795138889</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>481</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>36528.0925462963</v>
+        <v>36528.09439814815</v>
       </c>
       <c r="E195" t="n">
         <v>2</v>
@@ -4683,7 +4683,7 @@
         <v>481</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>36528.17449074074</v>
+        <v>36528.17700231481</v>
       </c>
       <c r="E196" t="n">
         <v>3</v>
@@ -4705,7 +4705,7 @@
         <v>481</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>36528.17449074074</v>
+        <v>36528.17700231481</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -4727,7 +4727,7 @@
         <v>478</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>36528.09944444444</v>
+        <v>36528.10231481482</v>
       </c>
       <c r="E198" t="n">
         <v>2</v>
@@ -4749,7 +4749,7 @@
         <v>478</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>36528.16402777778</v>
+        <v>36528.16747685185</v>
       </c>
       <c r="E199" t="n">
         <v>3</v>
@@ -4771,7 +4771,7 @@
         <v>478</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>36528.16402777778</v>
+        <v>36528.16747685185</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>482</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>36528.14469907407</v>
+        <v>36528.14721064815</v>
       </c>
       <c r="E201" t="n">
         <v>2</v>
@@ -4815,7 +4815,7 @@
         <v>482</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>36528.26344907407</v>
+        <v>36528.26649305555</v>
       </c>
       <c r="E202" t="n">
         <v>3</v>
@@ -4837,7 +4837,7 @@
         <v>482</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>36528.26344907407</v>
+        <v>36528.26649305555</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>487</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>36528.14502314815</v>
+        <v>36528.14805555555</v>
       </c>
       <c r="E204" t="n">
         <v>2</v>
@@ -4881,7 +4881,7 @@
         <v>487</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>36528.23043981481</v>
+        <v>36528.23376157408</v>
       </c>
       <c r="E205" t="n">
         <v>3</v>
@@ -4903,7 +4903,7 @@
         <v>487</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>36528.23043981481</v>
+        <v>36528.23376157408</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -4925,7 +4925,7 @@
         <v>485</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>36528.16402777778</v>
+        <v>36528.16747685185</v>
       </c>
       <c r="E207" t="n">
         <v>2</v>
@@ -4947,7 +4947,7 @@
         <v>485</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>36528.23833333333</v>
+        <v>36528.24216435185</v>
       </c>
       <c r="E208" t="n">
         <v>3</v>
@@ -4969,7 +4969,7 @@
         <v>485</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>36528.23833333333</v>
+        <v>36528.24216435185</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -4991,7 +4991,7 @@
         <v>486</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>36528.17027777778</v>
+        <v>36528.17326388889</v>
       </c>
       <c r="E210" t="n">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>486</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>36528.42930555555</v>
+        <v>36528.43253472223</v>
       </c>
       <c r="E211" t="n">
         <v>3</v>
@@ -5035,7 +5035,7 @@
         <v>486</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>36528.42930555555</v>
+        <v>36528.43253472223</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5057,7 +5057,7 @@
         <v>468</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>36528.17349537037</v>
+        <v>36528.1759837963</v>
       </c>
       <c r="E213" t="n">
         <v>2</v>
@@ -5079,7 +5079,7 @@
         <v>468</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>36528.22488425926</v>
+        <v>36528.22788194445</v>
       </c>
       <c r="E214" t="n">
         <v>3</v>
@@ -5101,7 +5101,7 @@
         <v>468</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>36528.22488425926</v>
+        <v>36528.22788194445</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -5123,7 +5123,7 @@
         <v>469</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>36528.17449074074</v>
+        <v>36528.17700231481</v>
       </c>
       <c r="E216" t="n">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>469</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>36528.23490740741</v>
+        <v>36528.23788194444</v>
       </c>
       <c r="E217" t="n">
         <v>3</v>
@@ -5167,7 +5167,7 @@
         <v>469</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>36528.23490740741</v>
+        <v>36528.23788194444</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5189,7 +5189,7 @@
         <v>471</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>36528.19432870371</v>
+        <v>36528.19733796296</v>
       </c>
       <c r="E219" t="n">
         <v>2</v>
@@ -5211,7 +5211,7 @@
         <v>471</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>36528.27210648148</v>
+        <v>36528.27533564815</v>
       </c>
       <c r="E220" t="n">
         <v>3</v>
@@ -5233,7 +5233,7 @@
         <v>471</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>36528.27210648148</v>
+        <v>36528.27533564815</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>474</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>36528.22472222222</v>
+        <v>36528.22615740741</v>
       </c>
       <c r="E222" t="n">
         <v>2</v>
@@ -5277,7 +5277,7 @@
         <v>474</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>36528.4525</v>
+        <v>36528.45409722222</v>
       </c>
       <c r="E223" t="n">
         <v>3</v>
@@ -5299,7 +5299,7 @@
         <v>474</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>36528.4525</v>
+        <v>36528.45409722222</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -5321,7 +5321,7 @@
         <v>481</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>36528.22488425926</v>
+        <v>36528.22788194445</v>
       </c>
       <c r="E225" t="n">
         <v>2</v>
@@ -5343,7 +5343,7 @@
         <v>481</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>36528.30613425926</v>
+        <v>36528.30936342593</v>
       </c>
       <c r="E226" t="n">
         <v>3</v>
@@ -5365,7 +5365,7 @@
         <v>481</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>36528.30613425926</v>
+        <v>36528.30936342593</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>483</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>36528.23043981481</v>
+        <v>36528.23376157408</v>
       </c>
       <c r="E228" t="n">
         <v>2</v>
@@ -5409,7 +5409,7 @@
         <v>483</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>36528.48738425926</v>
+        <v>36528.49136574074</v>
       </c>
       <c r="E229" t="n">
         <v>3</v>
@@ -5431,7 +5431,7 @@
         <v>483</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>36528.48738425926</v>
+        <v>36528.49136574074</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5453,7 +5453,7 @@
         <v>484</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>36528.23490740741</v>
+        <v>36528.23788194444</v>
       </c>
       <c r="E231" t="n">
         <v>2</v>
@@ -5475,7 +5475,7 @@
         <v>484</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>36528.2612962963</v>
+        <v>36528.26487268518</v>
       </c>
       <c r="E232" t="n">
         <v>3</v>
@@ -5497,7 +5497,7 @@
         <v>484</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>36528.2612962963</v>
+        <v>36528.26487268518</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
         <v>472</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>36528.255</v>
+        <v>36528.25795138889</v>
       </c>
       <c r="E234" t="n">
         <v>2</v>
@@ -5541,7 +5541,7 @@
         <v>472</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>36528.45986111111</v>
+        <v>36528.4628125</v>
       </c>
       <c r="E235" t="n">
         <v>3</v>
@@ -5563,7 +5563,7 @@
         <v>472</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>36528.45986111111</v>
+        <v>36528.4628125</v>
       </c>
       <c r="E236" t="n">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>478</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>36528.2612962963</v>
+        <v>36528.26487268518</v>
       </c>
       <c r="E237" t="n">
         <v>2</v>
@@ -5607,7 +5607,7 @@
         <v>478</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>36528.32796296296</v>
+        <v>36528.33207175926</v>
       </c>
       <c r="E238" t="n">
         <v>3</v>
@@ -5629,7 +5629,7 @@
         <v>484</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>36528.2612962963</v>
+        <v>36528.26487268518</v>
       </c>
       <c r="E239" t="n">
         <v>2</v>
@@ -5651,7 +5651,7 @@
         <v>484</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>36528.33143518519</v>
+        <v>36528.33519675926</v>
       </c>
       <c r="E240" t="n">
         <v>3</v>
@@ -5673,7 +5673,7 @@
         <v>484</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>36528.33143518519</v>
+        <v>36528.33519675926</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>482</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>36528.26344907407</v>
+        <v>36528.26649305555</v>
       </c>
       <c r="E242" t="n">
         <v>2</v>
@@ -5717,7 +5717,7 @@
         <v>482</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>36528.40025462963</v>
+        <v>36528.40378472222</v>
       </c>
       <c r="E243" t="n">
         <v>3</v>
@@ -5739,7 +5739,7 @@
         <v>482</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>36528.40025462963</v>
+        <v>36528.40378472222</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -5761,7 +5761,7 @@
         <v>475</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>36528.26344907407</v>
+        <v>36528.26649305555</v>
       </c>
       <c r="E245" t="n">
         <v>2</v>
@@ -5783,7 +5783,7 @@
         <v>475</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>36528.31344907408</v>
+        <v>36528.31702546297</v>
       </c>
       <c r="E246" t="n">
         <v>3</v>
@@ -5805,7 +5805,7 @@
         <v>475</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>36528.31344907408</v>
+        <v>36528.31702546297</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -5827,7 +5827,7 @@
         <v>477</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>36528.27210648148</v>
+        <v>36528.27533564815</v>
       </c>
       <c r="E248" t="n">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>477</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>36528.31168981481</v>
+        <v>36528.31548611111</v>
       </c>
       <c r="E249" t="n">
         <v>3</v>
@@ -5871,7 +5871,7 @@
         <v>473</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>36528.31168981481</v>
+        <v>36528.31548611111</v>
       </c>
       <c r="E250" t="n">
         <v>2</v>
@@ -5893,7 +5893,7 @@
         <v>473</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>36528.35543981481</v>
+        <v>36528.35982638889</v>
       </c>
       <c r="E251" t="n">
         <v>3</v>
@@ -5915,7 +5915,7 @@
         <v>468</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>36528.31344907408</v>
+        <v>36528.31702546297</v>
       </c>
       <c r="E252" t="n">
         <v>2</v>
@@ -5937,7 +5937,7 @@
         <v>468</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>36528.35372685185</v>
+        <v>36528.35792824074</v>
       </c>
       <c r="E253" t="n">
         <v>3</v>
@@ -5959,7 +5959,7 @@
         <v>485</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>36528.32796296296</v>
+        <v>36528.33207175926</v>
       </c>
       <c r="E254" t="n">
         <v>2</v>
@@ -5981,7 +5981,7 @@
         <v>485</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>36528.35365740741</v>
+        <v>36528.35791666667</v>
       </c>
       <c r="E255" t="n">
         <v>3</v>
@@ -6003,7 +6003,7 @@
         <v>481</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>36528.33143518519</v>
+        <v>36528.33519675926</v>
       </c>
       <c r="E256" t="n">
         <v>2</v>
@@ -6025,7 +6025,7 @@
         <v>481</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>36528.49532407407</v>
+        <v>36528.49974537037</v>
       </c>
       <c r="E257" t="n">
         <v>3</v>
@@ -6047,7 +6047,7 @@
         <v>481</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>36528.49532407407</v>
+        <v>36528.49974537037</v>
       </c>
       <c r="E258" t="n">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>487</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>36528.35372685185</v>
+        <v>36528.35792824074</v>
       </c>
       <c r="E259" t="n">
         <v>2</v>
@@ -6091,7 +6091,7 @@
         <v>487</v>
       </c>
       <c r="D260" s="2" t="n">
-        <v>36528.44539351852</v>
+        <v>36528.45009259259</v>
       </c>
       <c r="E260" t="n">
         <v>3</v>
@@ -6113,7 +6113,7 @@
         <v>479</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>36528.35543981481</v>
+        <v>36528.35982638889</v>
       </c>
       <c r="E261" t="n">
         <v>2</v>
@@ -6135,7 +6135,7 @@
         <v>479</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>36528.52141203704</v>
+        <v>36528.52600694444</v>
       </c>
       <c r="E262" t="n">
         <v>3</v>
@@ -6157,7 +6157,7 @@
         <v>469</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>36528.42930555555</v>
+        <v>36528.43253472223</v>
       </c>
       <c r="E263" t="n">
         <v>2</v>
@@ -6179,7 +6179,7 @@
         <v>469</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>36528.48208333334</v>
+        <v>36528.48545138889</v>
       </c>
       <c r="E264" t="n">
         <v>3</v>
@@ -6201,7 +6201,7 @@
         <v>469</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>36528.48208333334</v>
+        <v>36528.48545138889</v>
       </c>
       <c r="E265" t="n">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>482</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>36528.44539351852</v>
+        <v>36528.45009259259</v>
       </c>
       <c r="E266" t="n">
         <v>2</v>
@@ -6245,7 +6245,7 @@
         <v>482</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>36528.56136574074</v>
+        <v>36528.56638888889</v>
       </c>
       <c r="E267" t="n">
         <v>3</v>
@@ -6267,7 +6267,7 @@
         <v>476</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>36528.4525</v>
+        <v>36528.45409722222</v>
       </c>
       <c r="E268" t="n">
         <v>2</v>
@@ -6289,7 +6289,7 @@
         <v>476</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>36528.51569444445</v>
+        <v>36528.51758101852</v>
       </c>
       <c r="E269" t="n">
         <v>3</v>
@@ -6311,7 +6311,7 @@
         <v>476</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>36528.51569444445</v>
+        <v>36528.51758101852</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
@@ -6333,7 +6333,7 @@
         <v>475</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>36528.45986111111</v>
+        <v>36528.4628125</v>
       </c>
       <c r="E271" t="n">
         <v>2</v>
@@ -6355,7 +6355,7 @@
         <v>475</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>36528.58625</v>
+        <v>36528.58936342593</v>
       </c>
       <c r="E272" t="n">
         <v>3</v>
@@ -6377,7 +6377,7 @@
         <v>475</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>36528.58625</v>
+        <v>36528.58936342593</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>484</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>36528.48208333334</v>
+        <v>36528.48545138889</v>
       </c>
       <c r="E274" t="n">
         <v>2</v>
@@ -6421,7 +6421,7 @@
         <v>484</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>36528.50777777778</v>
+        <v>36528.51181712963</v>
       </c>
       <c r="E275" t="n">
         <v>3</v>
@@ -6443,7 +6443,7 @@
         <v>484</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>36528.50777777778</v>
+        <v>36528.51181712963</v>
       </c>
       <c r="E276" t="n">
         <v>1</v>
@@ -6465,7 +6465,7 @@
         <v>469</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>36528.48208333334</v>
+        <v>36528.48545138889</v>
       </c>
       <c r="E277" t="n">
         <v>2</v>
@@ -6487,7 +6487,7 @@
         <v>469</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>36528.58694444445</v>
+        <v>36528.59071759259</v>
       </c>
       <c r="E278" t="n">
         <v>3</v>
@@ -6509,7 +6509,7 @@
         <v>469</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>36528.58694444445</v>
+        <v>36528.59071759259</v>
       </c>
       <c r="E279" t="n">
         <v>1</v>
@@ -6531,7 +6531,7 @@
         <v>483</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>36528.48738425926</v>
+        <v>36528.49136574074</v>
       </c>
       <c r="E280" t="n">
         <v>2</v>
@@ -6553,7 +6553,7 @@
         <v>483</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>36528.72974537037</v>
+        <v>36528.73409722222</v>
       </c>
       <c r="E281" t="n">
         <v>3</v>
@@ -6575,7 +6575,7 @@
         <v>483</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>36528.72974537037</v>
+        <v>36528.73409722222</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>471</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>36528.51569444445</v>
+        <v>36528.51758101852</v>
       </c>
       <c r="E283" t="n">
         <v>2</v>
@@ -6619,7 +6619,7 @@
         <v>471</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>36528.63513888889</v>
+        <v>36528.63755787037</v>
       </c>
       <c r="E284" t="n">
         <v>3</v>
@@ -6641,7 +6641,7 @@
         <v>476</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>36528.51569444445</v>
+        <v>36528.51758101852</v>
       </c>
       <c r="E285" t="n">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>476</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>36528.64</v>
+        <v>36528.64193287037</v>
       </c>
       <c r="E286" t="n">
         <v>3</v>
@@ -6685,7 +6685,7 @@
         <v>476</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>36528.64</v>
+        <v>36528.64193287037</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -6707,7 +6707,7 @@
         <v>480</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>36528.52141203704</v>
+        <v>36528.52600694444</v>
       </c>
       <c r="E288" t="n">
         <v>2</v>
@@ -6729,7 +6729,7 @@
         <v>480</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>36528.73043981481</v>
+        <v>36528.73532407408</v>
       </c>
       <c r="E289" t="n">
         <v>3</v>
@@ -6751,7 +6751,7 @@
         <v>480</v>
       </c>
       <c r="D290" s="2" t="n">
-        <v>36528.73043981481</v>
+        <v>36528.73532407408</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>474</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>36528.56136574074</v>
+        <v>36528.56638888889</v>
       </c>
       <c r="E291" t="n">
         <v>2</v>
@@ -6795,7 +6795,7 @@
         <v>474</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>36528.77178240741</v>
+        <v>36528.77746527778</v>
       </c>
       <c r="E292" t="n">
         <v>3</v>
@@ -6817,7 +6817,7 @@
         <v>474</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>36528.77178240741</v>
+        <v>36528.77746527778</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
@@ -6839,7 +6839,7 @@
         <v>475</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>36528.58625</v>
+        <v>36528.58936342593</v>
       </c>
       <c r="E294" t="n">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>475</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>36528.68902777778</v>
+        <v>36528.69273148148</v>
       </c>
       <c r="E295" t="n">
         <v>3</v>
@@ -6883,7 +6883,7 @@
         <v>475</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>36528.68902777778</v>
+        <v>36528.69273148148</v>
       </c>
       <c r="E296" t="n">
         <v>1</v>
@@ -6905,7 +6905,7 @@
         <v>484</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>36528.58625</v>
+        <v>36528.58936342593</v>
       </c>
       <c r="E297" t="n">
         <v>2</v>
@@ -6927,7 +6927,7 @@
         <v>484</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>36528.65847222223</v>
+        <v>36528.66206018518</v>
       </c>
       <c r="E298" t="n">
         <v>3</v>
@@ -6949,7 +6949,7 @@
         <v>469</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>36528.58694444445</v>
+        <v>36528.59071759259</v>
       </c>
       <c r="E299" t="n">
         <v>2</v>
@@ -6971,7 +6971,7 @@
         <v>469</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>36528.67236111111</v>
+        <v>36528.67649305556</v>
       </c>
       <c r="E300" t="n">
         <v>3</v>
@@ -6993,7 +6993,7 @@
         <v>469</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>36528.67236111111</v>
+        <v>36528.67649305556</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>481</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>36528.63513888889</v>
+        <v>36528.63755787037</v>
       </c>
       <c r="E302" t="n">
         <v>2</v>
@@ -7037,7 +7037,7 @@
         <v>481</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>36528.72888888889</v>
+        <v>36528.73173611111</v>
       </c>
       <c r="E303" t="n">
         <v>3</v>
@@ -7059,7 +7059,7 @@
         <v>481</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>36528.72888888889</v>
+        <v>36528.73173611111</v>
       </c>
       <c r="E304" t="n">
         <v>1</v>
@@ -7081,7 +7081,7 @@
         <v>476</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>36528.64</v>
+        <v>36528.64193287037</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
@@ -7103,7 +7103,7 @@
         <v>476</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>36528.71916666667</v>
+        <v>36528.72172453703</v>
       </c>
       <c r="E306" t="n">
         <v>3</v>
@@ -7125,7 +7125,7 @@
         <v>476</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>36528.71916666667</v>
+        <v>36528.72172453703</v>
       </c>
       <c r="E307" t="n">
         <v>1</v>
@@ -7147,7 +7147,7 @@
         <v>476</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>36528.71916666667</v>
+        <v>36528.72172453703</v>
       </c>
       <c r="E308" t="n">
         <v>2</v>
@@ -7169,7 +7169,7 @@
         <v>476</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>36528.83305555556</v>
+        <v>36528.83603009259</v>
       </c>
       <c r="E309" t="n">
         <v>3</v>
@@ -7191,7 +7191,7 @@
         <v>469</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>36528.72888888889</v>
+        <v>36528.73173611111</v>
       </c>
       <c r="E310" t="n">
         <v>2</v>
@@ -7213,7 +7213,7 @@
         <v>469</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>36528.81916666667</v>
+        <v>36528.82228009259</v>
       </c>
       <c r="E311" t="n">
         <v>3</v>
@@ -7235,7 +7235,7 @@
         <v>481</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>36528.72888888889</v>
+        <v>36528.73173611111</v>
       </c>
       <c r="E312" t="n">
         <v>2</v>
@@ -7257,7 +7257,7 @@
         <v>481</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>36528.81916666667</v>
+        <v>36528.82243055556</v>
       </c>
       <c r="E313" t="n">
         <v>3</v>
@@ -7279,7 +7279,7 @@
         <v>481</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>36528.81916666667</v>
+        <v>36528.82243055556</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
@@ -7301,7 +7301,7 @@
         <v>483</v>
       </c>
       <c r="D315" s="2" t="n">
-        <v>36528.72974537037</v>
+        <v>36528.73409722222</v>
       </c>
       <c r="E315" t="n">
         <v>2</v>
@@ -7323,7 +7323,7 @@
         <v>483</v>
       </c>
       <c r="D316" s="2" t="n">
-        <v>36529.00613425926</v>
+        <v>36529.01068287037</v>
       </c>
       <c r="E316" t="n">
         <v>3</v>
@@ -7345,7 +7345,7 @@
         <v>483</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>36529.00613425926</v>
+        <v>36529.01068287037</v>
       </c>
       <c r="E317" t="n">
         <v>1</v>
@@ -7367,7 +7367,7 @@
         <v>486</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>36528.73043981481</v>
+        <v>36528.73532407408</v>
       </c>
       <c r="E318" t="n">
         <v>2</v>
@@ -7389,7 +7389,7 @@
         <v>486</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>36528.97835648148</v>
+        <v>36528.98384259259</v>
       </c>
       <c r="E319" t="n">
         <v>3</v>
@@ -7411,7 +7411,7 @@
         <v>486</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>36528.97835648148</v>
+        <v>36528.98384259259</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>480</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>36528.73043981481</v>
+        <v>36528.73532407408</v>
       </c>
       <c r="E321" t="n">
         <v>2</v>
@@ -7455,7 +7455,7 @@
         <v>480</v>
       </c>
       <c r="D322" s="2" t="n">
-        <v>36528.85891203704</v>
+        <v>36528.86407407407</v>
       </c>
       <c r="E322" t="n">
         <v>3</v>
@@ -7477,7 +7477,7 @@
         <v>474</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>36528.77178240741</v>
+        <v>36528.77746527778</v>
       </c>
       <c r="E323" t="n">
         <v>2</v>
@@ -7499,7 +7499,7 @@
         <v>474</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>36528.92594907407</v>
+        <v>36528.93224537037</v>
       </c>
       <c r="E324" t="n">
         <v>3</v>
@@ -7521,7 +7521,7 @@
         <v>474</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>36528.92594907407</v>
+        <v>36528.93224537037</v>
       </c>
       <c r="E325" t="n">
         <v>1</v>
@@ -7543,7 +7543,7 @@
         <v>474</v>
       </c>
       <c r="D326" s="2" t="n">
-        <v>36528.92594907407</v>
+        <v>36528.93224537037</v>
       </c>
       <c r="E326" t="n">
         <v>2</v>
@@ -7565,7 +7565,7 @@
         <v>474</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>36529.00094907408</v>
+        <v>36529.0078587963</v>
       </c>
       <c r="E327" t="n">
         <v>3</v>
@@ -7587,7 +7587,7 @@
         <v>472</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>36528.97835648148</v>
+        <v>36528.98384259259</v>
       </c>
       <c r="E328" t="n">
         <v>2</v>
@@ -7609,7 +7609,7 @@
         <v>472</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>36529.04641203704</v>
+        <v>36529.05201388889</v>
       </c>
       <c r="E329" t="n">
         <v>3</v>
@@ -7631,7 +7631,7 @@
         <v>486</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>36529.00094907408</v>
+        <v>36529.0078587963</v>
       </c>
       <c r="E330" t="n">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>486</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>36529.25025462963</v>
+        <v>36529.25777777778</v>
       </c>
       <c r="E331" t="n">
         <v>3</v>
@@ -7675,7 +7675,7 @@
         <v>486</v>
       </c>
       <c r="D332" s="2" t="n">
-        <v>36529.25025462963</v>
+        <v>36529.25777777778</v>
       </c>
       <c r="E332" t="n">
         <v>1</v>
@@ -7697,7 +7697,7 @@
         <v>481</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>36529.00613425926</v>
+        <v>36529.01068287037</v>
       </c>
       <c r="E333" t="n">
         <v>2</v>
@@ -7719,7 +7719,7 @@
         <v>481</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>36529.12974537037</v>
+        <v>36529.13453703704</v>
       </c>
       <c r="E334" t="n">
         <v>3</v>
@@ -7741,7 +7741,7 @@
         <v>483</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>36529.00613425926</v>
+        <v>36529.01068287037</v>
       </c>
       <c r="E335" t="n">
         <v>2</v>
@@ -7763,7 +7763,7 @@
         <v>483</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>36529.09918981481</v>
+        <v>36529.10386574074</v>
       </c>
       <c r="E336" t="n">
         <v>3</v>
@@ -7785,7 +7785,7 @@
         <v>483</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>36529.09918981481</v>
+        <v>36529.10386574074</v>
       </c>
       <c r="E337" t="n">
         <v>1</v>
@@ -7807,7 +7807,7 @@
         <v>475</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>36529.04641203704</v>
+        <v>36529.05201388889</v>
       </c>
       <c r="E338" t="n">
         <v>2</v>
@@ -7829,7 +7829,7 @@
         <v>475</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>36529.13252314815</v>
+        <v>36529.13836805556</v>
       </c>
       <c r="E339" t="n">
         <v>3</v>
@@ -7851,7 +7851,7 @@
         <v>483</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>36529.09918981481</v>
+        <v>36529.10386574074</v>
       </c>
       <c r="E340" t="n">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>483</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>36529.23391203704</v>
+        <v>36529.23917824074</v>
       </c>
       <c r="E341" t="n">
         <v>3</v>
@@ -7895,7 +7895,7 @@
         <v>486</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>36529.25025462963</v>
+        <v>36529.25777777778</v>
       </c>
       <c r="E342" t="n">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>486</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>36529.41344907408</v>
+        <v>36529.42133101852</v>
       </c>
       <c r="E343" t="n">
         <v>3</v>
@@ -7939,7 +7939,7 @@
         <v>486</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>36529.41344907408</v>
+        <v>36529.42133101852</v>
       </c>
       <c r="E344" t="n">
         <v>1</v>
@@ -7961,7 +7961,7 @@
         <v>486</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>36529.41344907408</v>
+        <v>36529.42133101852</v>
       </c>
       <c r="E345" t="n">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>486</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>36529.66344907408</v>
+        <v>36529.67195601852</v>
       </c>
       <c r="E346" t="n">
         <v>3</v>
